--- a/All Teraco Data/Operations CT2/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations CT2/Outputs/Data Analysis Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
   <si>
     <t>Total Incoming</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.7385690277495479</t>
+    <t>R2 = 0.7362428441228226</t>
   </si>
   <si>
     <t>const</t>
@@ -52,19 +52,19 @@
     <t>Total UPS TEM1</t>
   </si>
   <si>
-    <t>R2 = 0.7510612389745267</t>
+    <t>R2 = 0.6338087051747936</t>
   </si>
   <si>
     <t>Total UPS TEM2</t>
   </si>
   <si>
-    <t>R2 = 0.6916286152921602</t>
+    <t>CDD 18</t>
+  </si>
+  <si>
+    <t>R2 = 0.5390326370008767</t>
   </si>
   <si>
     <t>Total UPS Total</t>
-  </si>
-  <si>
-    <t>CDD 18</t>
   </si>
   <si>
     <t>TEM</t>
@@ -612,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>4.103726506018409</v>
+        <v>2.953140597148355</v>
       </c>
     </row>
   </sheetData>
@@ -621,6 +621,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.438642693705954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.9493152001076046</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -630,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -643,52 +685,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>4.630705000546913</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>3.90648870492653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>2.093358145535336</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -867,7 +867,7 @@
         <v>-0</v>
       </c>
       <c r="J5">
-        <v>36.90648870492653</v>
+        <v>35.09335814553534</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-5.423871016364505E-18</v>
+        <v>-3.903148435606414E-18</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0.02474528812544762</v>
       </c>
       <c r="E20">
-        <v>0.04037420008546376</v>
+        <v>0.0290542484190682</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1356,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.6128985360221876</v>
+        <v>0.8516925913391508</v>
       </c>
       <c r="I20">
         <v>1.532846772954966</v>
       </c>
       <c r="J20">
-        <v>5.106008661423735</v>
+        <v>3.292878102032542</v>
       </c>
       <c r="K20">
         <v>0.009838423692770973</v>
@@ -1388,7 +1388,7 @@
         <v>0.0005487533670123012</v>
       </c>
       <c r="E21">
-        <v>0.009912235957331239</v>
+        <v>0.007133084130041013</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0553612090525786</v>
+        <v>0.07693072968272226</v>
       </c>
       <c r="I21">
         <v>6.205581384884301</v>
       </c>
       <c r="J21">
-        <v>9.352469249938101</v>
+        <v>7.539338690546909</v>
       </c>
       <c r="K21">
         <v>0.002415423138650744</v>
@@ -1429,7 +1429,7 @@
         <v>0.0005487533670122959</v>
       </c>
       <c r="E22">
-        <v>0.009912235957331239</v>
+        <v>0.007133084130041013</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.05536120905257805</v>
+        <v>0.07693072968272151</v>
       </c>
       <c r="I22">
         <v>1.643134392622405</v>
       </c>
       <c r="J22">
-        <v>5.114788432414723</v>
+        <v>3.30165787302353</v>
       </c>
       <c r="K22">
         <v>0.002415423138650744</v>
@@ -1470,7 +1470,7 @@
         <v>0.0005487533670122959</v>
       </c>
       <c r="E23">
-        <v>4.11486030453622</v>
+        <v>2.961152747167417</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001333589299270623</v>
+        <v>0.0001853174806795168</v>
       </c>
       <c r="I23">
         <v>3.862268659820468</v>
       </c>
       <c r="J23">
-        <v>7.174355285353082</v>
+        <v>5.361224725961888</v>
       </c>
       <c r="K23">
         <v>1.002713094671753</v>
@@ -1511,7 +1511,7 @@
         <v>0.09828089622415517</v>
       </c>
       <c r="E24">
-        <v>4.648023295661594</v>
+        <v>3.344829698270338</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0211446651560222</v>
+        <v>0.02938292980206966</v>
       </c>
       <c r="I24">
         <v>28.06548257149982</v>
       </c>
       <c r="J24">
-        <v>30.98821227424873</v>
+        <v>29.17508171485754</v>
       </c>
       <c r="K24">
         <v>1.132634762293475</v>
@@ -1552,7 +1552,7 @@
         <v>2.873089534547788</v>
       </c>
       <c r="E25">
-        <v>21.76975642529703</v>
+        <v>15.66604192440487</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.131976191116644</v>
+        <v>0.1833960070074901</v>
       </c>
       <c r="I25">
         <v>23.35505915665882</v>
       </c>
       <c r="J25">
-        <v>20.05498693315577</v>
+        <v>18.24185637376457</v>
       </c>
       <c r="K25">
         <v>5.304875067422286</v>
@@ -1593,7 +1593,7 @@
         <v>22.18313739060145</v>
       </c>
       <c r="E26">
-        <v>33.19809219290548</v>
+        <v>23.89014805420447</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.6682051866625651</v>
+        <v>0.9285475058702032</v>
       </c>
       <c r="I26">
         <v>12.35058533783109</v>
       </c>
       <c r="J26">
-        <v>9.858006905019968</v>
+        <v>8.044876345628774</v>
       </c>
       <c r="K26">
         <v>8.089742857916601</v>
@@ -1634,7 +1634,7 @@
         <v>22.53790251653107</v>
       </c>
       <c r="E27">
-        <v>51.7369185444875</v>
+        <v>37.23113475057644</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.4356251425594897</v>
+        <v>0.6053509426322851</v>
       </c>
       <c r="I27">
         <v>11.47344227702033</v>
       </c>
       <c r="J27">
-        <v>7.865867990815448</v>
+        <v>6.052737431424254</v>
       </c>
       <c r="K27">
         <v>12.60730179474963</v>
@@ -1675,7 +1675,7 @@
         <v>85.95112544660712</v>
       </c>
       <c r="E28">
-        <v>108.3082638339987</v>
+        <v>77.94123961861351</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.7935786467627459</v>
+        <v>1.102768263209413</v>
       </c>
       <c r="I28">
         <v>11.59949244100114</v>
       </c>
       <c r="J28">
-        <v>9.507334436426177</v>
+        <v>7.694203877034982</v>
       </c>
       <c r="K28">
         <v>26.39266132261905</v>
@@ -1716,7 +1716,7 @@
         <v>226.5990056852382</v>
       </c>
       <c r="E29">
-        <v>322.9161586251236</v>
+        <v>232.3782581788779</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1725,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.7017270571098891</v>
+        <v>0.9751299775679054</v>
       </c>
       <c r="I29">
         <v>6.368730693536502</v>
       </c>
       <c r="J29">
-        <v>6.618638020159879</v>
+        <v>4.805507460768684</v>
       </c>
       <c r="K29">
         <v>78.68851838726189</v>
@@ -1757,7 +1757,7 @@
         <v>981.8235391248809</v>
       </c>
       <c r="E30">
-        <v>534.7382942860635</v>
+        <v>384.8105772619327</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1.836082340868681</v>
+        <v>2.551446340459019</v>
       </c>
       <c r="I30">
         <v>8.26929816312766</v>
       </c>
       <c r="J30">
-        <v>6.965941543317116</v>
+        <v>5.152810983925925</v>
       </c>
       <c r="K30">
         <v>130.3055390026191</v>
@@ -1798,7 +1798,7 @@
         <v>874.526569761905</v>
       </c>
       <c r="E31">
-        <v>590.2014708546591</v>
+        <v>424.7232171835543</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1.481742443805707</v>
+        <v>2.059050540163801</v>
       </c>
       <c r="I31">
         <v>8.904645680400906</v>
       </c>
       <c r="J31">
-        <v>7.318151653216262</v>
+        <v>5.505021093825067</v>
       </c>
       <c r="K31">
         <v>143.8208589166667</v>
@@ -1839,7 +1839,7 @@
         <v>9.495030059523872</v>
       </c>
       <c r="E32">
-        <v>87.89618152880907</v>
+        <v>63.25221274526207</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1848,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.1080255125350554</v>
+        <v>0.1501138007260481</v>
       </c>
       <c r="I32">
         <v>5.233280633754554</v>
       </c>
       <c r="J32">
-        <v>8.733474421827619</v>
+        <v>6.920343862436426</v>
       </c>
       <c r="K32">
         <v>21.41862558333334</v>
@@ -1880,7 +1880,7 @@
         <v>26.24701678571381</v>
       </c>
       <c r="E33">
-        <v>110.0498215550911</v>
+        <v>79.19450657022266</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.2385012207636748</v>
+        <v>0.3314247152034502</v>
       </c>
       <c r="I33">
         <v>5.286878536415538</v>
       </c>
       <c r="J33">
-        <v>8.558853195315951</v>
+        <v>6.745722635924748</v>
       </c>
       <c r="K33">
         <v>26.81704577380953</v>
@@ -1921,7 +1921,7 @@
         <v>43.64149517857177</v>
       </c>
       <c r="E34">
-        <v>142.5706940797407</v>
+        <v>102.5973110130581</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1930,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.3061042485643143</v>
+        <v>0.4253668517005996</v>
       </c>
       <c r="I34">
         <v>4.977281779546633</v>
       </c>
       <c r="J34">
-        <v>7.942337235202091</v>
+        <v>6.129206675810902</v>
       </c>
       <c r="K34">
         <v>34.74176309523808</v>
@@ -1962,7 +1962,7 @@
         <v>21.75127101190446</v>
       </c>
       <c r="E35">
-        <v>149.0848877352273</v>
+        <v>107.2850819240802</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.1458985638472923</v>
+        <v>0.2027427357262648</v>
       </c>
       <c r="I35">
         <v>4.411084482923154</v>
       </c>
       <c r="J35">
-        <v>7.761487132460738</v>
+        <v>5.948356573069543</v>
       </c>
       <c r="K35">
         <v>36.32914803571426</v>
@@ -2003,7 +2003,7 @@
         <v>11.49243000000015</v>
       </c>
       <c r="E36">
-        <v>149.8310788294024</v>
+        <v>107.8220590374934</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.07670257792834444</v>
+        <v>0.1065870017934256</v>
       </c>
       <c r="I36">
         <v>4.48291214457495</v>
       </c>
       <c r="J36">
-        <v>8.044312236532884</v>
+        <v>6.231181677141693</v>
       </c>
       <c r="K36">
         <v>36.5109805952381</v>
@@ -2044,7 +2044,7 @@
         <v>553.7170922023807</v>
       </c>
       <c r="E37">
-        <v>624.9194807979101</v>
+        <v>449.7071347192993</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.8860614994677127</v>
+        <v>1.231283761037065</v>
       </c>
       <c r="I37">
         <v>6.055634518156402</v>
       </c>
       <c r="J37">
-        <v>6.50992569024742</v>
+        <v>4.696795130856231</v>
       </c>
       <c r="K37">
         <v>152.2809767857144</v>
@@ -2085,7 +2085,7 @@
         <v>684.0296940476196</v>
       </c>
       <c r="E38">
-        <v>612.1701669194393</v>
+        <v>440.5324208719994</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1.11738488905755</v>
+        <v>1.552734059149691</v>
       </c>
       <c r="I38">
         <v>7.402789257156477</v>
       </c>
       <c r="J38">
-        <v>7.205536053385199</v>
+        <v>5.392405493994002</v>
       </c>
       <c r="K38">
         <v>149.1742117857142</v>
@@ -2126,7 +2126,7 @@
         <v>30.52280160714249</v>
       </c>
       <c r="E39">
-        <v>202.4414906683223</v>
+        <v>145.6817806359853</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.150773448201637</v>
+        <v>0.2095169449047972</v>
       </c>
       <c r="I39">
         <v>4.570146703328066</v>
       </c>
       <c r="J39">
-        <v>7.913747135195297</v>
+        <v>6.100616575804102</v>
       </c>
       <c r="K39">
         <v>49.33113607142858</v>
@@ -2167,7 +2167,7 @@
         <v>20.31134926568068</v>
       </c>
       <c r="E40">
-        <v>133.0063714914487</v>
+        <v>95.71459373687381</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.1527095960736479</v>
+        <v>0.2122074437417351</v>
       </c>
       <c r="I40">
         <v>5.310984863027415</v>
       </c>
       <c r="J40">
-        <v>8.267033829831609</v>
+        <v>6.453903270440419</v>
       </c>
       <c r="K40">
         <v>32.41111981911691</v>
@@ -2208,7 +2208,7 @@
         <v>132.080915139081</v>
       </c>
       <c r="E41">
-        <v>261.9380398667827</v>
+        <v>188.4969328081705</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.5042448786982414</v>
+        <v>0.7007059116102279</v>
       </c>
       <c r="I41">
         <v>5.155757995731522</v>
       </c>
       <c r="J41">
-        <v>6.901903642014654</v>
+        <v>5.088773082623464</v>
       </c>
       <c r="K41">
         <v>63.82931208564504</v>
@@ -2249,7 +2249,7 @@
         <v>24.045116666667</v>
       </c>
       <c r="E42">
-        <v>139.0914536203921</v>
+        <v>100.0935656409737</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.1728727110171042</v>
+        <v>0.2402263972982498</v>
       </c>
       <c r="I42">
         <v>4.706533329540142</v>
       </c>
       <c r="J42">
-        <v>7.165402271076998</v>
+        <v>5.352271711685803</v>
       </c>
       <c r="K42">
         <v>33.8939384523809</v>
@@ -2290,7 +2290,7 @@
         <v>25.5757427976184</v>
       </c>
       <c r="E43">
-        <v>136.8248521301005</v>
+        <v>98.46246452623802</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.1869232262959042</v>
+        <v>0.2597511947388138</v>
       </c>
       <c r="I43">
         <v>4.969791479821648</v>
       </c>
       <c r="J43">
-        <v>7.178887210609925</v>
+        <v>5.365756651218731</v>
       </c>
       <c r="K43">
         <v>33.34161083333332</v>
@@ -2331,22 +2331,22 @@
         <v>22.51976583333315</v>
       </c>
       <c r="E44">
-        <v>115.000141709643</v>
+        <v>82.75687638113698</v>
       </c>
       <c r="F44">
-        <v>-92.48037587630989</v>
+        <v>-60.23711054780383</v>
       </c>
       <c r="G44">
-        <v>-92.48037587630989</v>
+        <v>-60.23711054780383</v>
       </c>
       <c r="H44">
-        <v>0.1958238094192262</v>
+        <v>0.2721195726336784</v>
       </c>
       <c r="I44">
         <v>5.261234011975835</v>
       </c>
       <c r="J44">
-        <v>7.477592798791525</v>
+        <v>5.664462239400327</v>
       </c>
       <c r="K44">
         <v>28.02334452380953</v>
@@ -2372,22 +2372,22 @@
         <v>28.71392553571578</v>
       </c>
       <c r="E45">
-        <v>131.3250686446834</v>
+        <v>94.50468764649428</v>
       </c>
       <c r="F45">
-        <v>-102.6111431089676</v>
+        <v>-65.79076211077849</v>
       </c>
       <c r="G45">
-        <v>-195.0915189852775</v>
+        <v>-126.0278726585823</v>
       </c>
       <c r="H45">
-        <v>0.2186477100834795</v>
+        <v>0.3038359921692302</v>
       </c>
       <c r="I45">
         <v>5.829166982169057</v>
       </c>
       <c r="J45">
-        <v>7.700751874343794</v>
+        <v>5.8876213149526</v>
       </c>
       <c r="K45">
         <v>32.00141833333332</v>
@@ -2413,22 +2413,22 @@
         <v>23.40762553571368</v>
       </c>
       <c r="E46">
-        <v>141.9534606368619</v>
+        <v>102.153134936653</v>
       </c>
       <c r="F46">
-        <v>-118.5458351011482</v>
+        <v>-78.74550940093928</v>
       </c>
       <c r="G46">
-        <v>-313.6373540864257</v>
+        <v>-204.7733820595216</v>
       </c>
       <c r="H46">
-        <v>0.1648964768502113</v>
+        <v>0.2291425079634529</v>
       </c>
       <c r="I46">
         <v>3.486142972763887</v>
       </c>
       <c r="J46">
-        <v>6.223346667562331</v>
+        <v>4.410216108171139</v>
       </c>
       <c r="K46">
         <v>34.59135505952383</v>
@@ -2454,22 +2454,22 @@
         <v>68.95254630952314</v>
       </c>
       <c r="E47">
-        <v>216.2068842984494</v>
+        <v>155.5876899857527</v>
       </c>
       <c r="F47">
-        <v>-147.2543379889263</v>
+        <v>-86.63514367622952</v>
       </c>
       <c r="G47">
-        <v>-460.891692075352</v>
+        <v>-291.4085257357511</v>
       </c>
       <c r="H47">
-        <v>0.3189192912763216</v>
+        <v>0.4431748187522882</v>
       </c>
       <c r="I47">
         <v>4.673176230768131</v>
       </c>
       <c r="J47">
-        <v>7.055238078969496</v>
+        <v>5.242107519578306</v>
       </c>
       <c r="K47">
         <v>52.68550035714283</v>
@@ -2495,22 +2495,22 @@
         <v>125.5149330357138</v>
       </c>
       <c r="E48">
-        <v>194.167006703582</v>
+        <v>139.7272623509849</v>
       </c>
       <c r="F48">
-        <v>-68.65207366786818</v>
+        <v>-14.21232931527108</v>
       </c>
       <c r="G48">
-        <v>-529.5437657432202</v>
+        <v>-305.6208550510222</v>
       </c>
       <c r="H48">
-        <v>0.6464277076039321</v>
+        <v>0.8982852087979029</v>
       </c>
       <c r="I48">
         <v>-4.752043024451422</v>
       </c>
       <c r="J48">
-        <v>-3.018980602898312</v>
+        <v>-4.832111162289505</v>
       </c>
       <c r="K48">
         <v>47.31480190476196</v>
@@ -2536,22 +2536,22 @@
         <v>156.2110429761919</v>
       </c>
       <c r="E49">
-        <v>237.1003179869579</v>
+        <v>170.6231089272616</v>
       </c>
       <c r="F49">
-        <v>-80.88927501076606</v>
+        <v>-14.41206595106974</v>
       </c>
       <c r="G49">
-        <v>-610.4330407539862</v>
+        <v>-320.0329210020919</v>
       </c>
       <c r="H49">
-        <v>0.6588394494889902</v>
+        <v>0.9155327432392892</v>
       </c>
       <c r="I49">
         <v>6.063759956652471</v>
       </c>
       <c r="J49">
-        <v>7.130170176083888</v>
+        <v>5.317039616692692</v>
       </c>
       <c r="K49">
         <v>57.77683226190472</v>
@@ -2577,22 +2577,22 @@
         <v>65.48851440476123</v>
       </c>
       <c r="E50">
-        <v>172.3918177584662</v>
+        <v>124.0573110542575</v>
       </c>
       <c r="F50">
-        <v>-106.903303353705</v>
+        <v>-58.56879664949631</v>
       </c>
       <c r="G50">
-        <v>-717.3363441076912</v>
+        <v>-378.6017176515883</v>
       </c>
       <c r="H50">
-        <v>0.3798818021428113</v>
+        <v>0.5278891977282923</v>
       </c>
       <c r="I50">
         <v>4.446838456039343</v>
       </c>
       <c r="J50">
-        <v>6.599500941693877</v>
+        <v>4.786370382302681</v>
       </c>
       <c r="K50">
         <v>42.0086030357143</v>
@@ -2618,22 +2618,22 @@
         <v>63.02234851190518</v>
       </c>
       <c r="E51">
-        <v>166.4586470448315</v>
+        <v>119.7876582695143</v>
       </c>
       <c r="F51">
-        <v>-103.4362985329263</v>
+        <v>-56.76530975760909</v>
       </c>
       <c r="G51">
-        <v>-820.7726426406175</v>
+        <v>-435.3670274091974</v>
       </c>
       <c r="H51">
-        <v>0.3786066367278095</v>
+        <v>0.5261172095885628</v>
       </c>
       <c r="I51">
         <v>3.896906041954181</v>
       </c>
       <c r="J51">
-        <v>6.196366774337224</v>
+        <v>4.383236214946034</v>
       </c>
       <c r="K51">
         <v>40.56280232142858</v>
@@ -2659,22 +2659,22 @@
         <v>58.37697386904828</v>
       </c>
       <c r="E52">
-        <v>163.3872446964285</v>
+        <v>117.5774030412617</v>
       </c>
       <c r="F52">
-        <v>-105.0102708273802</v>
+        <v>-59.20042917221344</v>
       </c>
       <c r="G52">
-        <v>-925.7829134679978</v>
+        <v>-494.5674565814108</v>
       </c>
       <c r="H52">
-        <v>0.3572921128421743</v>
+        <v>0.4964982416609585</v>
       </c>
       <c r="I52">
         <v>4.056309499975893</v>
       </c>
       <c r="J52">
-        <v>6.363301744966877</v>
+        <v>4.550171185575677</v>
       </c>
       <c r="K52">
         <v>39.81436005952379</v>
@@ -2700,22 +2700,22 @@
         <v>44.57862702380918</v>
       </c>
       <c r="E53">
-        <v>150.2615792814384</v>
+        <v>108.1318575487085</v>
       </c>
       <c r="F53">
-        <v>-105.6829522576292</v>
+        <v>-63.55323052489933</v>
       </c>
       <c r="G53">
-        <v>-1031.465865725627</v>
+        <v>-558.1206871063101</v>
       </c>
       <c r="H53">
-        <v>0.2966734892378169</v>
+        <v>0.412261733353915</v>
       </c>
       <c r="I53">
         <v>4.932537679738197</v>
       </c>
       <c r="J53">
-        <v>6.719416785309579</v>
+        <v>4.90628622591839</v>
       </c>
       <c r="K53">
         <v>36.61588535714284</v>
@@ -2741,22 +2741,22 @@
         <v>42.8156122222103</v>
       </c>
       <c r="E54">
-        <v>131.2106043131929</v>
+        <v>94.42231635207337</v>
       </c>
       <c r="F54">
-        <v>-88.39499209098258</v>
+        <v>-51.60670412986307</v>
       </c>
       <c r="G54">
-        <v>-1119.86085781661</v>
+        <v>-609.7273912361732</v>
       </c>
       <c r="H54">
-        <v>0.3263121334310119</v>
+        <v>0.4534480181842111</v>
       </c>
       <c r="I54">
         <v>5.766441925647495</v>
       </c>
       <c r="J54">
-        <v>7.209801863878333</v>
+        <v>5.396671304487156</v>
       </c>
       <c r="K54">
         <v>31.97352555555618</v>
@@ -2779,7 +2779,7 @@
         <v>-0.0009869408871169482</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>10.38573982946991</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2787,8 +2787,8 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
-        <v>28</v>
+      <c r="H55">
+        <v>-9.502846242272201E-05</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
@@ -2817,12 +2817,15 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>12.19587497852526</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="K56">
@@ -2849,12 +2852,15 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>20.03789661369986</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>0</v>
       </c>
       <c r="K57">
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.22407507425096E-17</v>
+        <v>10.82106314408371</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2890,13 +2896,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>-0</v>
       </c>
       <c r="J58">
-        <v>36.90648870492653</v>
+        <v>35.09335814553534</v>
       </c>
       <c r="K58">
         <v>-2.64338815386942E-18</v>
@@ -2922,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1.22407507425096E-17</v>
+        <v>9.538357486795455</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2960,12 +2966,15 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>12.64679969857637</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>0</v>
       </c>
       <c r="K60">
@@ -2992,12 +3001,15 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>10.45094322975604</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="K61">
@@ -3024,12 +3036,15 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3.985428634737461</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>0</v>
       </c>
       <c r="K62">
@@ -3056,12 +3071,15 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>7.34532636083259</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
         <v>0</v>
       </c>
       <c r="K63">
@@ -3088,12 +3106,15 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1.975479725938206</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0</v>
       </c>
       <c r="K64">
@@ -3120,12 +3141,15 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.8724658743846079</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="K65">
@@ -3152,12 +3176,15 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.066455765948518</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>0</v>
       </c>
       <c r="K66">
@@ -3184,12 +3211,15 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2.498733223140373</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>0</v>
       </c>
       <c r="K67">
@@ -3216,12 +3246,15 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>8.781165600995342</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>0</v>
       </c>
       <c r="K68">
@@ -3248,12 +3281,15 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2.223544828823467</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>0</v>
       </c>
       <c r="K69">
@@ -3280,12 +3316,15 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>3.687072428989357</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>0</v>
       </c>
       <c r="K70">
@@ -3312,12 +3351,15 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.02599315428866061</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>0</v>
       </c>
       <c r="K71">
@@ -3344,12 +3386,15 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.2158561943101815</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>0</v>
       </c>
       <c r="K72">
@@ -3376,7 +3421,7 @@
         <v>0.5250685632186767</v>
       </c>
       <c r="E73">
-        <v>7.592667746692727</v>
+        <v>2.894534463519832</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3385,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.06915468722405115</v>
+        <v>0.1814000039855041</v>
       </c>
       <c r="I73">
         <v>1.532846772954966</v>
       </c>
       <c r="J73">
-        <v>5.106008661423735</v>
+        <v>3.292878102032542</v>
       </c>
       <c r="K73">
         <v>1.639635378586196</v>
@@ -3417,7 +3462,7 @@
         <v>2.8366939195968</v>
       </c>
       <c r="E74">
-        <v>17.28531213207226</v>
+        <v>7.083961417476509</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3426,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0.1641100778465793</v>
+        <v>0.400438928506658</v>
       </c>
       <c r="I74">
         <v>6.205581384884301</v>
       </c>
       <c r="J74">
-        <v>9.352469249938101</v>
+        <v>7.539338690546909</v>
       </c>
       <c r="K74">
         <v>3.732760374506854</v>
@@ -3458,7 +3503,7 @@
         <v>5.328812189285715</v>
       </c>
       <c r="E75">
-        <v>56.74302596094067</v>
+        <v>20.27257604700567</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3467,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.09391131507427589</v>
+        <v>0.2628581674538988</v>
       </c>
       <c r="I75">
         <v>1.643134392622405</v>
       </c>
       <c r="J75">
-        <v>5.114788432414723</v>
+        <v>3.30165787302353</v>
       </c>
       <c r="K75">
         <v>12.25364732891406</v>
@@ -3499,7 +3544,7 @@
         <v>23.00219148321951</v>
       </c>
       <c r="E76">
-        <v>174.5601830150448</v>
+        <v>54.91289790718456</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3508,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.1317722695171385</v>
+        <v>0.4188850408532164</v>
       </c>
       <c r="I76">
         <v>3.862268659820468</v>
       </c>
       <c r="J76">
-        <v>7.174355285353082</v>
+        <v>5.361224725961888</v>
       </c>
       <c r="K76">
         <v>37.69624344336947</v>
@@ -3540,7 +3585,7 @@
         <v>6.086184388871223</v>
       </c>
       <c r="E77">
-        <v>23.86633228267203</v>
+        <v>7.812472900984736</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3549,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.2550112986271482</v>
+        <v>0.779034303991516</v>
       </c>
       <c r="I77">
         <v>28.06548257149982</v>
       </c>
       <c r="J77">
-        <v>30.98821227424873</v>
+        <v>29.17508171485754</v>
       </c>
       <c r="K77">
         <v>5.153930617444488</v>
@@ -3581,7 +3626,7 @@
         <v>293.5474869022366</v>
       </c>
       <c r="E78">
-        <v>165.9050472728634</v>
+        <v>53.03031941951281</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3590,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1.769370442476293</v>
+        <v>5.535465185114917</v>
       </c>
       <c r="I78">
         <v>23.35505915665882</v>
       </c>
       <c r="J78">
-        <v>20.05498693315577</v>
+        <v>18.24185637376457</v>
       </c>
       <c r="K78">
         <v>35.82716827205989</v>
@@ -3622,7 +3667,7 @@
         <v>766.6021570773812</v>
       </c>
       <c r="E79">
-        <v>533.3457391252074</v>
+        <v>165.8179299296676</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3631,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1.437345610625409</v>
+        <v>4.623155996474801</v>
       </c>
       <c r="I79">
         <v>12.35058533783109</v>
       </c>
       <c r="J79">
-        <v>9.858006905019968</v>
+        <v>8.044876345628774</v>
       </c>
       <c r="K79">
         <v>115.1759265732143</v>
@@ -3663,7 +3708,7 @@
         <v>1518.087986547619</v>
       </c>
       <c r="E80">
-        <v>891.0635688280328</v>
+        <v>277.4665719069499</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3672,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1.703680904095627</v>
+        <v>5.471246413988633</v>
       </c>
       <c r="I80">
         <v>11.47344227702033</v>
       </c>
       <c r="J80">
-        <v>7.865867990815448</v>
+        <v>6.052737431424254</v>
       </c>
       <c r="K80">
         <v>192.4250343571428</v>
@@ -3704,7 +3749,7 @@
         <v>1849.207756428571</v>
       </c>
       <c r="E81">
-        <v>1371.645294618801</v>
+        <v>428.9443890753734</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3713,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1.348167608406729</v>
+        <v>4.311066430813322</v>
       </c>
       <c r="I81">
         <v>11.59949244100114</v>
       </c>
       <c r="J81">
-        <v>9.507334436426177</v>
+        <v>7.694203877034982</v>
       </c>
       <c r="K81">
         <v>296.2065807380953</v>
@@ -3745,7 +3790,7 @@
         <v>900.7678113095247</v>
       </c>
       <c r="E82">
-        <v>1063.317210348219</v>
+        <v>333.0388277949625</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3754,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.8471299086888082</v>
+        <v>2.704693075199293</v>
       </c>
       <c r="I82">
         <v>6.368730693536502</v>
       </c>
       <c r="J82">
-        <v>6.618638020159879</v>
+        <v>4.805507460768684</v>
       </c>
       <c r="K82">
         <v>229.6231805357143</v>
@@ -3786,7 +3831,7 @@
         <v>49.75213690476085</v>
       </c>
       <c r="E83">
-        <v>313.496457010841</v>
+        <v>100.9208674758142</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3795,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.158700794832397</v>
+        <v>0.4929816612672695</v>
       </c>
       <c r="I83">
         <v>8.26929816312766</v>
       </c>
       <c r="J83">
-        <v>6.965941543317116</v>
+        <v>5.152810983925925</v>
       </c>
       <c r="K83">
         <v>67.69950946428574</v>
@@ -3827,7 +3872,7 @@
         <v>50.63327380952459</v>
       </c>
       <c r="E84">
-        <v>113.9380825313789</v>
+        <v>39.49894254902099</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3836,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0.4443928902838964</v>
+        <v>1.281889350498057</v>
       </c>
       <c r="I84">
         <v>8.904645680400906</v>
       </c>
       <c r="J84">
-        <v>7.318151653216262</v>
+        <v>5.505021093825067</v>
       </c>
       <c r="K84">
         <v>24.60491059523812</v>
@@ -3868,7 +3913,7 @@
         <v>10.14992857142767</v>
       </c>
       <c r="E85">
-        <v>124.7180817957938</v>
+        <v>45.97453954297303</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3877,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.08138297530943894</v>
+        <v>0.2207728162658464</v>
       </c>
       <c r="I85">
         <v>5.233280633754554</v>
       </c>
       <c r="J85">
-        <v>8.733474421827619</v>
+        <v>6.920343862436426</v>
       </c>
       <c r="K85">
         <v>26.93284970238093</v>
@@ -3909,7 +3954,7 @@
         <v>7.741273809524413</v>
       </c>
       <c r="E86">
-        <v>123.8658680715581</v>
+        <v>45.49279200394934</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3918,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0.06249723132002944</v>
+        <v>0.1701648430118858</v>
       </c>
       <c r="I86">
         <v>5.286878536415538</v>
       </c>
       <c r="J86">
-        <v>8.558853195315951</v>
+        <v>6.745722635924748</v>
       </c>
       <c r="K86">
         <v>26.74881428571434</v>
@@ -3950,7 +3995,7 @@
         <v>11.41950595238069</v>
       </c>
       <c r="E87">
-        <v>109.9542098409915</v>
+        <v>40.09207643388355</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3959,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.1038569234310794</v>
+        <v>0.2848319909599286</v>
       </c>
       <c r="I87">
         <v>4.977281779546633</v>
       </c>
       <c r="J87">
-        <v>7.942337235202091</v>
+        <v>6.129206675810902</v>
       </c>
       <c r="K87">
         <v>23.7445939285714</v>
@@ -3991,7 +4036,7 @@
         <v>21.31139285714363</v>
       </c>
       <c r="E88">
-        <v>190.3668961173551</v>
+        <v>69.16648686005762</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4000,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.111949048347176</v>
+        <v>0.3081173242218055</v>
       </c>
       <c r="I88">
         <v>4.411084482923154</v>
       </c>
       <c r="J88">
-        <v>7.761487132460738</v>
+        <v>5.948356573069543</v>
       </c>
       <c r="K88">
         <v>41.10970059523803</v>
@@ -4032,7 +4077,7 @@
         <v>10.87939285714293</v>
       </c>
       <c r="E89">
-        <v>131.1333758829308</v>
+        <v>45.09593036102535</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4041,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.08296433142128129</v>
+        <v>0.24124999240609</v>
       </c>
       <c r="I89">
         <v>4.48291214457495</v>
       </c>
       <c r="J89">
-        <v>8.044312236532884</v>
+        <v>6.231181677141693</v>
       </c>
       <c r="K89">
         <v>28.31823142857151</v>
@@ -4073,7 +4118,7 @@
         <v>42.11197023809446</v>
       </c>
       <c r="E90">
-        <v>94.06426399258362</v>
+        <v>37.46660339452162</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4082,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.4476936133940806</v>
+        <v>1.123986868909822</v>
       </c>
       <c r="I90">
         <v>6.055634518156402</v>
       </c>
       <c r="J90">
-        <v>6.50992569024742</v>
+        <v>4.696795130856231</v>
       </c>
       <c r="K90">
         <v>20.31316267857143</v>
@@ -4114,7 +4159,7 @@
         <v>42.59187500000034</v>
       </c>
       <c r="E91">
-        <v>129.1455583844524</v>
+        <v>51.58240791973965</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4123,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0.3297974435420297</v>
+        <v>0.8257054433416863</v>
       </c>
       <c r="I91">
         <v>7.402789257156477</v>
       </c>
       <c r="J91">
-        <v>7.205536053385199</v>
+        <v>5.392405493994002</v>
       </c>
       <c r="K91">
         <v>27.88896255952378</v>
@@ -4155,7 +4200,7 @@
         <v>27.2537505952385</v>
       </c>
       <c r="E92">
-        <v>246.8716069453379</v>
+        <v>92.7396139435192</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4164,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.1103964564109351</v>
+        <v>0.2938738844851859</v>
       </c>
       <c r="I92">
         <v>4.570146703328066</v>
       </c>
       <c r="J92">
-        <v>7.913747135195297</v>
+        <v>6.100616575804102</v>
       </c>
       <c r="K92">
         <v>53.31188380952381</v>
@@ -4196,7 +4241,7 @@
         <v>52.38932261904743</v>
       </c>
       <c r="E93">
-        <v>204.1237760652878</v>
+        <v>72.2859657455159</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4205,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.2566546809436399</v>
+        <v>0.7247509537810566</v>
       </c>
       <c r="I93">
         <v>5.310984863027415</v>
       </c>
       <c r="J93">
-        <v>8.267033829831609</v>
+        <v>6.453903270440419</v>
       </c>
       <c r="K93">
         <v>44.08049660714288</v>
@@ -4237,7 +4282,7 @@
         <v>101.4261374999991</v>
       </c>
       <c r="E94">
-        <v>204.9486961937407</v>
+        <v>76.54914876499717</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4246,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.4948854976082385</v>
+        <v>1.324980605746163</v>
       </c>
       <c r="I94">
         <v>5.155757995731522</v>
       </c>
       <c r="J94">
-        <v>6.901903642014654</v>
+        <v>5.088773082623464</v>
       </c>
       <c r="K94">
         <v>44.25863797619048</v>
@@ -4278,7 +4323,7 @@
         <v>105.7410738095246</v>
       </c>
       <c r="E95">
-        <v>258.2125166155392</v>
+        <v>96.49745063722335</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4287,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.4095118052195968</v>
+        <v>1.095791371805791</v>
       </c>
       <c r="I95">
         <v>4.706533329540142</v>
       </c>
       <c r="J95">
-        <v>7.165402271076998</v>
+        <v>5.352271711685803</v>
       </c>
       <c r="K95">
         <v>55.76095142857143</v>
@@ -4319,7 +4364,7 @@
         <v>132.6053535714281</v>
       </c>
       <c r="E96">
-        <v>277.1430861799827</v>
+        <v>114.8113375779512</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4328,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.4784725298372095</v>
+        <v>1.154984833108452</v>
       </c>
       <c r="I96">
         <v>4.969791479821648</v>
       </c>
       <c r="J96">
-        <v>7.178887210609925</v>
+        <v>5.365756651218731</v>
       </c>
       <c r="K96">
         <v>59.84900488095237</v>
@@ -4360,22 +4405,22 @@
         <v>94.02661488095224</v>
       </c>
       <c r="E97">
-        <v>189.5519350366627</v>
+        <v>72.03247761942973</v>
       </c>
       <c r="F97">
-        <v>-95.52532015571047</v>
+        <v>21.99413726152251</v>
       </c>
       <c r="G97">
-        <v>-95.52532015571047</v>
+        <v>21.99413726152251</v>
       </c>
       <c r="H97">
-        <v>0.4960467159713554</v>
+        <v>1.305336398085936</v>
       </c>
       <c r="I97">
         <v>5.261234011975835</v>
       </c>
       <c r="J97">
-        <v>7.477592798791525</v>
+        <v>5.664462239400327</v>
       </c>
       <c r="K97">
         <v>40.93370988095237</v>
@@ -4401,22 +4446,22 @@
         <v>111.6955732142856</v>
       </c>
       <c r="E98">
-        <v>171.3321015113862</v>
+        <v>80.32923078065581</v>
       </c>
       <c r="F98">
-        <v>-59.63652829710061</v>
+        <v>31.36634243362982</v>
       </c>
       <c r="G98">
-        <v>-155.1618484528111</v>
+        <v>53.36047969515234</v>
       </c>
       <c r="H98">
-        <v>0.651924375111121</v>
+        <v>1.390472336518168</v>
       </c>
       <c r="I98">
         <v>5.829166982169057</v>
       </c>
       <c r="J98">
-        <v>7.700751874343794</v>
+        <v>5.8876213149526</v>
       </c>
       <c r="K98">
         <v>36.99913976190471</v>
@@ -4442,22 +4487,22 @@
         <v>149.526848809524</v>
       </c>
       <c r="E99">
-        <v>524.6879044670259</v>
+        <v>193.0214176747724</v>
       </c>
       <c r="F99">
-        <v>-375.1610556575018</v>
+        <v>-43.4945688652484</v>
       </c>
       <c r="G99">
-        <v>-530.3229041103129</v>
+        <v>9.865910829903939</v>
       </c>
       <c r="H99">
-        <v>0.2849824582127776</v>
+        <v>0.7746645455763168</v>
       </c>
       <c r="I99">
         <v>3.486142972763887</v>
       </c>
       <c r="J99">
-        <v>6.223346667562331</v>
+        <v>4.410216108171139</v>
       </c>
       <c r="K99">
         <v>113.3062685714286</v>
@@ -4483,22 +4528,22 @@
         <v>97.73853988095098</v>
       </c>
       <c r="E100">
-        <v>262.3814220791718</v>
+        <v>109.248259067468</v>
       </c>
       <c r="F100">
-        <v>-164.6428821982208</v>
+        <v>-11.50971918651697</v>
       </c>
       <c r="G100">
-        <v>-694.9657863085338</v>
+        <v>-1.643808356613036</v>
       </c>
       <c r="H100">
-        <v>0.3725055650146566</v>
+        <v>0.8946462004542428</v>
       </c>
       <c r="I100">
         <v>4.673176230768131</v>
       </c>
       <c r="J100">
-        <v>7.055238078969496</v>
+        <v>5.242107519578306</v>
       </c>
       <c r="K100">
         <v>56.66122589285715</v>
@@ -4524,22 +4569,22 @@
         <v>106.1772714285734</v>
       </c>
       <c r="E101">
-        <v>274.5428367211182</v>
+        <v>112.5625811085328</v>
       </c>
       <c r="F101">
-        <v>-168.3655652925448</v>
+        <v>-6.38530967995932</v>
       </c>
       <c r="G101">
-        <v>-863.3313516010785</v>
+        <v>-8.029118036572356</v>
       </c>
       <c r="H101">
-        <v>0.3867420934986141</v>
+        <v>0.9432732474941863</v>
       </c>
       <c r="I101">
         <v>-4.752043024451422</v>
       </c>
       <c r="J101">
-        <v>-3.018980602898312</v>
+        <v>-4.832111162289505</v>
       </c>
       <c r="K101">
         <v>59.28748142857148</v>
@@ -4565,22 +4610,22 @@
         <v>140.6137428571431</v>
       </c>
       <c r="E102">
-        <v>216.4208563062523</v>
+        <v>90.76536582905497</v>
       </c>
       <c r="F102">
-        <v>-75.80711344910915</v>
+        <v>49.84837702808817</v>
       </c>
       <c r="G102">
-        <v>-939.1384650501876</v>
+        <v>41.81925899151581</v>
       </c>
       <c r="H102">
-        <v>0.6497236230234843</v>
+        <v>1.549200419926376</v>
       </c>
       <c r="I102">
         <v>6.063759956652471</v>
       </c>
       <c r="J102">
-        <v>7.130170176083888</v>
+        <v>5.317039616692692</v>
       </c>
       <c r="K102">
         <v>46.73604910714281</v>
@@ -4606,22 +4651,22 @@
         <v>148.9973202380962</v>
       </c>
       <c r="E103">
-        <v>371.7869953633632</v>
+        <v>138.0589447052806</v>
       </c>
       <c r="F103">
-        <v>-222.7896751252671</v>
+        <v>10.9383755328156</v>
       </c>
       <c r="G103">
-        <v>-1161.928140175455</v>
+        <v>52.75763452433141</v>
       </c>
       <c r="H103">
-        <v>0.4007599031065482</v>
+        <v>1.079229748975455</v>
       </c>
       <c r="I103">
         <v>4.446838456039343</v>
       </c>
       <c r="J103">
-        <v>6.599500941693877</v>
+        <v>4.786370382302681</v>
       </c>
       <c r="K103">
         <v>80.28734184523806</v>
@@ -4647,22 +4692,22 @@
         <v>167.5580291666653</v>
       </c>
       <c r="E104">
-        <v>476.5907201057293</v>
+        <v>175.522471140983</v>
       </c>
       <c r="F104">
-        <v>-309.032690939064</v>
+        <v>-7.964441974317651</v>
       </c>
       <c r="G104">
-        <v>-1470.960831114519</v>
+        <v>44.79319255001376</v>
       </c>
       <c r="H104">
-        <v>0.3515763570249403</v>
+        <v>0.9546243741753131</v>
       </c>
       <c r="I104">
         <v>3.896906041954181</v>
       </c>
       <c r="J104">
-        <v>6.196366774337224</v>
+        <v>4.383236214946034</v>
       </c>
       <c r="K104">
         <v>102.9196893452382</v>
@@ -4688,22 +4733,22 @@
         <v>169.5593047619055</v>
       </c>
       <c r="E105">
-        <v>475.5301629700387</v>
+        <v>170.053119188954</v>
       </c>
       <c r="F105">
-        <v>-305.9708582081332</v>
+        <v>-0.4938144270485054</v>
       </c>
       <c r="G105">
-        <v>-1776.931689322652</v>
+        <v>44.29937812296525</v>
       </c>
       <c r="H105">
-        <v>0.356568979142946</v>
+        <v>0.9970961166169507</v>
       </c>
       <c r="I105">
         <v>4.056309499975893</v>
       </c>
       <c r="J105">
-        <v>6.363301744966877</v>
+        <v>4.550171185575677</v>
       </c>
       <c r="K105">
         <v>102.6906622023808</v>
@@ -4729,22 +4774,22 @@
         <v>185.7387297619037</v>
       </c>
       <c r="E106">
-        <v>333.6163040794038</v>
+        <v>123.4743874449043</v>
       </c>
       <c r="F106">
-        <v>-147.8775743175001</v>
+        <v>62.26434231699943</v>
       </c>
       <c r="G106">
-        <v>-1924.809263640152</v>
+        <v>106.5637204399647</v>
       </c>
       <c r="H106">
-        <v>0.5567435628616525</v>
+        <v>1.504269295077755</v>
       </c>
       <c r="I106">
         <v>4.932537679738197</v>
       </c>
       <c r="J106">
-        <v>6.719416785309579</v>
+        <v>4.90628622591839</v>
       </c>
       <c r="K106">
         <v>72.04438720238102</v>
@@ -4770,22 +4815,22 @@
         <v>171.4113777778111</v>
       </c>
       <c r="E107">
-        <v>254.6887698848507</v>
+        <v>79.12534655533506</v>
       </c>
       <c r="F107">
-        <v>-83.27739210703953</v>
+        <v>92.28603122247608</v>
       </c>
       <c r="G107">
-        <v>-2008.086655747192</v>
+        <v>198.8497516624408</v>
       </c>
       <c r="H107">
-        <v>0.6730229128489226</v>
+        <v>2.166327039818237</v>
       </c>
       <c r="I107">
         <v>5.766441925647495</v>
       </c>
       <c r="J107">
-        <v>7.209801863878333</v>
+        <v>5.396671304487156</v>
       </c>
       <c r="K107">
         <v>54.99999888888851</v>
@@ -4910,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-1.032636596582748E-17</v>
+        <v>-5.533558123714165E-18</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4925,7 +4970,7 @@
         <v>-0</v>
       </c>
       <c r="J111">
-        <v>36.90648870492653</v>
+        <v>35.09335814553534</v>
       </c>
       <c r="K111">
         <v>-2.64338815386942E-18</v>
@@ -4951,7 +4996,7 @@
         <v>-8.458842092382145E-17</v>
       </c>
       <c r="E112">
-        <v>-1.032636596582748E-17</v>
+        <v>-5.533558123714165E-18</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4960,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>8.191499430074977</v>
+        <v>15.28644301418218</v>
       </c>
       <c r="J112" t="s">
         <v>29</v>
@@ -5405,7 +5450,7 @@
         <v>0.5498138513441242</v>
       </c>
       <c r="E126">
-        <v>6.443650777674999</v>
+        <v>3.452939419847817</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5414,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>0.08532645084507641</v>
+        <v>0.1592306682775096</v>
       </c>
       <c r="I126">
         <v>1.532846772954966</v>
       </c>
       <c r="J126">
-        <v>5.106008661423735</v>
+        <v>3.292878102032542</v>
       </c>
       <c r="K126">
         <v>1.649473802278967</v>
@@ -5446,7 +5491,7 @@
         <v>2.837242672963812</v>
       </c>
       <c r="E127">
-        <v>14.59142206441711</v>
+        <v>7.819060681007665</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5455,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.1944459327156851</v>
+        <v>0.3628623422574805</v>
       </c>
       <c r="I127">
         <v>6.205581384884301</v>
       </c>
       <c r="J127">
-        <v>9.352469249938101</v>
+        <v>7.539338690546909</v>
       </c>
       <c r="K127">
         <v>3.735175797645506</v>
@@ -5487,7 +5532,7 @@
         <v>5.329360942652728</v>
       </c>
       <c r="E128">
-        <v>47.87817070776469</v>
+        <v>25.65632879420178</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5496,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0.1113108722382418</v>
+        <v>0.2077211040364099</v>
       </c>
       <c r="I128">
         <v>1.643134392622405</v>
       </c>
       <c r="J128">
-        <v>5.114788432414723</v>
+        <v>3.30165787302353</v>
       </c>
       <c r="K128">
         <v>12.25606275205272</v>
@@ -5528,7 +5573,7 @@
         <v>23.00274023658652</v>
       </c>
       <c r="E129">
-        <v>151.1770366083007</v>
+        <v>81.01077589262654</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5537,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.1521576342059578</v>
+        <v>0.2839466723177032</v>
       </c>
       <c r="I129">
         <v>3.862268659820468</v>
       </c>
       <c r="J129">
-        <v>7.174355285353082</v>
+        <v>5.361224725961888</v>
       </c>
       <c r="K129">
         <v>38.69895653804122</v>
@@ -5569,7 +5614,7 @@
         <v>6.184465285095379</v>
       </c>
       <c r="E130">
-        <v>24.55839664872851</v>
+        <v>13.16003284511491</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5578,13 +5623,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0.251826915802159</v>
+        <v>0.4699429977024026</v>
       </c>
       <c r="I130">
         <v>28.06548257149982</v>
       </c>
       <c r="J130">
-        <v>30.98821227424873</v>
+        <v>29.17508171485754</v>
       </c>
       <c r="K130">
         <v>6.286565379737963</v>
@@ -5610,7 +5655,7 @@
         <v>296.4205764367845</v>
       </c>
       <c r="E131">
-        <v>160.6818627162356</v>
+        <v>86.10409796721747</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5619,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1.844766866813485</v>
+        <v>3.442583842520957</v>
       </c>
       <c r="I131">
         <v>23.35505915665882</v>
       </c>
       <c r="J131">
-        <v>20.05498693315577</v>
+        <v>18.24185637376457</v>
       </c>
       <c r="K131">
         <v>41.13204333948217</v>
@@ -5651,7 +5696,7 @@
         <v>788.7852944679826</v>
       </c>
       <c r="E132">
-        <v>481.5359453379202</v>
+        <v>258.0391931685239</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5660,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1.638061087868422</v>
+        <v>3.056842973279766</v>
       </c>
       <c r="I132">
         <v>12.35058533783109</v>
       </c>
       <c r="J132">
-        <v>9.858006905019968</v>
+        <v>8.044876345628774</v>
       </c>
       <c r="K132">
         <v>123.2656694311309</v>
@@ -5692,7 +5737,7 @@
         <v>1540.62588906415</v>
       </c>
       <c r="E133">
-        <v>800.9565053220674</v>
+        <v>429.2061109817033</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5701,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1.923482584668763</v>
+        <v>3.589477991215799</v>
       </c>
       <c r="I133">
         <v>11.47344227702033</v>
       </c>
       <c r="J133">
-        <v>7.865867990815448</v>
+        <v>6.052737431424254</v>
       </c>
       <c r="K133">
         <v>205.0323361518925</v>
@@ -5733,7 +5778,7 @@
         <v>1935.158881875178</v>
       </c>
       <c r="E134">
-        <v>1260.23029532804</v>
+        <v>675.3157511113219</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5742,13 +5787,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1.535559721940706</v>
+        <v>2.865561596468936</v>
       </c>
       <c r="I134">
         <v>11.59949244100114</v>
       </c>
       <c r="J134">
-        <v>9.507334436426177</v>
+        <v>7.694203877034982</v>
       </c>
       <c r="K134">
         <v>322.5992420607143</v>
@@ -5774,7 +5819,7 @@
         <v>1127.366816994763</v>
       </c>
       <c r="E135">
-        <v>1204.416169439315</v>
+        <v>645.4068063042502</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5783,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0.9360276336372828</v>
+        <v>1.746753839567215</v>
       </c>
       <c r="I135">
         <v>6.368730693536502</v>
       </c>
       <c r="J135">
-        <v>6.618638020159879</v>
+        <v>4.805507460768684</v>
       </c>
       <c r="K135">
         <v>308.3116989229761</v>
@@ -5815,7 +5860,7 @@
         <v>1031.575676029642</v>
       </c>
       <c r="E136">
-        <v>773.5044853543935</v>
+        <v>414.4954810653142</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -5824,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1.333638906511329</v>
+        <v>2.488750114665523</v>
       </c>
       <c r="I136">
         <v>8.26929816312766</v>
       </c>
       <c r="J136">
-        <v>6.965941543317116</v>
+        <v>5.152810983925925</v>
       </c>
       <c r="K136">
         <v>198.0050484669048</v>
@@ -5856,7 +5901,7 @@
         <v>925.1598435714295</v>
       </c>
       <c r="E137">
-        <v>657.9533662168151</v>
+        <v>352.5754565258029</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5865,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1.406117653734386</v>
+        <v>2.624005234759506</v>
       </c>
       <c r="I137">
         <v>8.904645680400906</v>
       </c>
       <c r="J137">
-        <v>7.318151653216262</v>
+        <v>5.505021093825067</v>
       </c>
       <c r="K137">
         <v>168.4257695119048</v>
@@ -5897,7 +5942,7 @@
         <v>19.64495863095155</v>
       </c>
       <c r="E138">
-        <v>188.8844920701771</v>
+        <v>101.2169546380005</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5906,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.1040051431202344</v>
+        <v>0.1940876279197609</v>
       </c>
       <c r="I138">
         <v>5.233280633754554</v>
       </c>
       <c r="J138">
-        <v>8.733474421827619</v>
+        <v>6.920343862436426</v>
       </c>
       <c r="K138">
         <v>48.35147528571427</v>
@@ -5938,7 +5983,7 @@
         <v>33.98829059523823</v>
       </c>
       <c r="E139">
-        <v>209.2544272922051</v>
+        <v>112.1325294782102</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -5947,13 +5992,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.1624256701999266</v>
+        <v>0.3031082126961462</v>
       </c>
       <c r="I139">
         <v>5.286878536415538</v>
       </c>
       <c r="J139">
-        <v>8.558853195315951</v>
+        <v>6.745722635924748</v>
       </c>
       <c r="K139">
         <v>53.56586005952387</v>
@@ -5979,7 +6024,7 @@
         <v>55.06100113095246</v>
       </c>
       <c r="E140">
-        <v>228.4762931058122</v>
+        <v>122.4328918784794</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -5988,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.2409921851517984</v>
+        <v>0.4497239286449525</v>
       </c>
       <c r="I140">
         <v>4.977281779546633</v>
       </c>
       <c r="J140">
-        <v>7.942337235202091</v>
+        <v>6.129206675810902</v>
       </c>
       <c r="K140">
         <v>58.48635702380949</v>
@@ -6020,7 +6065,7 @@
         <v>43.06266386904809</v>
       </c>
       <c r="E141">
-        <v>302.5139874993304</v>
+        <v>162.1072445624819</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6029,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.1423493314309753</v>
+        <v>0.2656430561463909</v>
       </c>
       <c r="I141">
         <v>4.411084482923154</v>
       </c>
       <c r="J141">
-        <v>7.761487132460738</v>
+        <v>5.948356573069543</v>
       </c>
       <c r="K141">
         <v>77.43884863095229</v>
@@ -6061,7 +6106,7 @@
         <v>22.37182285714308</v>
       </c>
       <c r="E142">
-        <v>253.2545845202994</v>
+        <v>135.7107590586792</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6070,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.088337286764299</v>
+        <v>0.16484929428086</v>
       </c>
       <c r="I142">
         <v>4.48291214457495</v>
       </c>
       <c r="J142">
-        <v>8.044312236532884</v>
+        <v>6.231181677141693</v>
       </c>
       <c r="K142">
         <v>64.8292120238096</v>
@@ -6102,7 +6147,7 @@
         <v>595.8290624404752</v>
       </c>
       <c r="E143">
-        <v>674.2370563537465</v>
+        <v>361.3013477192245</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6111,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.88370856633526</v>
+        <v>1.649119401855948</v>
       </c>
       <c r="I143">
         <v>6.055634518156402</v>
       </c>
       <c r="J143">
-        <v>6.50992569024742</v>
+        <v>4.696795130856231</v>
       </c>
       <c r="K143">
         <v>172.5941394642858</v>
@@ -6143,7 +6188,7 @@
         <v>726.6215690476199</v>
       </c>
       <c r="E144">
-        <v>691.6952906381092</v>
+        <v>370.6566382899474</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6152,13 +6197,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1.050493734571028</v>
+        <v>1.960363026006883</v>
       </c>
       <c r="I144">
         <v>7.402789257156477</v>
       </c>
       <c r="J144">
-        <v>7.205536053385199</v>
+        <v>5.392405493994002</v>
       </c>
       <c r="K144">
         <v>177.063174345238</v>
@@ -6184,7 +6229,7 @@
         <v>57.77655220238098</v>
       </c>
       <c r="E145">
-        <v>400.9737978044897</v>
+        <v>214.8686017501371</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6193,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.1440905927487865</v>
+        <v>0.2688924846710141</v>
       </c>
       <c r="I145">
         <v>4.570146703328066</v>
       </c>
       <c r="J145">
-        <v>7.913747135195297</v>
+        <v>6.100616575804102</v>
       </c>
       <c r="K145">
         <v>102.6430198809524</v>
@@ -6225,7 +6270,7 @@
         <v>72.70067188472811</v>
       </c>
       <c r="E146">
-        <v>298.8136355907565</v>
+        <v>160.1243483110755</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6234,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0.2432977054109275</v>
+        <v>0.4540263404756636</v>
       </c>
       <c r="I146">
         <v>5.310984863027415</v>
       </c>
       <c r="J146">
-        <v>8.267033829831609</v>
+        <v>6.453903270440419</v>
       </c>
       <c r="K146">
         <v>76.4916164262598</v>
@@ -6266,7 +6311,7 @@
         <v>233.5070526390801</v>
       </c>
       <c r="E147">
-        <v>422.2443560552232</v>
+        <v>226.26679069616</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6275,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0.5530140291763684</v>
+        <v>1.031998783032383</v>
       </c>
       <c r="I147">
         <v>5.155757995731522</v>
       </c>
       <c r="J147">
-        <v>6.901903642014654</v>
+        <v>5.088773082623464</v>
       </c>
       <c r="K147">
         <v>108.0879500618355</v>
@@ -6307,7 +6352,7 @@
         <v>129.7861904761916</v>
       </c>
       <c r="E148">
-        <v>350.235814661372</v>
+        <v>187.6797940193651</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6316,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.3705680145866188</v>
+        <v>0.6915299068518802</v>
       </c>
       <c r="I148">
         <v>4.706533329540142</v>
       </c>
       <c r="J148">
-        <v>7.165402271076998</v>
+        <v>5.352271711685803</v>
       </c>
       <c r="K148">
         <v>89.65488988095233</v>
@@ -6348,7 +6393,7 @@
         <v>158.1810963690465</v>
       </c>
       <c r="E149">
-        <v>364.0480876930058</v>
+        <v>195.0813344929533</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6357,13 +6402,13 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0.4345060493833368</v>
+        <v>0.8108469053699258</v>
       </c>
       <c r="I149">
         <v>4.969791479821648</v>
       </c>
       <c r="J149">
-        <v>7.178887210609925</v>
+        <v>5.365756651218731</v>
       </c>
       <c r="K149">
         <v>93.1906157142857</v>
@@ -6389,22 +6434,22 @@
         <v>116.5463807142854</v>
       </c>
       <c r="E150">
-        <v>269.3799541572066</v>
+        <v>144.3518115303316</v>
       </c>
       <c r="F150">
-        <v>-152.8335734429212</v>
+        <v>-27.80543081604627</v>
       </c>
       <c r="G150">
-        <v>-152.8335734429212</v>
+        <v>-27.80543081604627</v>
       </c>
       <c r="H150">
-        <v>0.4326468206549269</v>
+        <v>0.8073773337426825</v>
       </c>
       <c r="I150">
         <v>5.261234011975835</v>
       </c>
       <c r="J150">
-        <v>7.477592798791525</v>
+        <v>5.664462239400327</v>
       </c>
       <c r="K150">
         <v>68.95705440476191</v>
@@ -6430,22 +6475,22 @@
         <v>140.4094987500014</v>
       </c>
       <c r="E151">
-        <v>269.5499008326742</v>
+        <v>144.4428803351507</v>
       </c>
       <c r="F151">
-        <v>-129.1404020826728</v>
+        <v>-4.0333815851493</v>
       </c>
       <c r="G151">
-        <v>-281.973975525594</v>
+        <v>-31.83881240119557</v>
       </c>
       <c r="H151">
-        <v>0.5209035444504281</v>
+        <v>0.9720762866553848</v>
       </c>
       <c r="I151">
         <v>5.829166982169057</v>
       </c>
       <c r="J151">
-        <v>7.700751874343794</v>
+        <v>5.8876213149526</v>
       </c>
       <c r="K151">
         <v>69.00055809523803</v>
@@ -6471,22 +6516,22 @@
         <v>172.9344743452377</v>
       </c>
       <c r="E152">
-        <v>577.7603961997906</v>
+        <v>309.6026951331737</v>
       </c>
       <c r="F152">
-        <v>-404.8259218545529</v>
+        <v>-136.668220787936</v>
       </c>
       <c r="G152">
-        <v>-686.7998973801469</v>
+        <v>-168.5070331891316</v>
       </c>
       <c r="H152">
-        <v>0.2993186716893566</v>
+        <v>0.558569021083137</v>
       </c>
       <c r="I152">
         <v>3.486142972763887</v>
       </c>
       <c r="J152">
-        <v>6.223346667562331</v>
+        <v>4.410216108171139</v>
       </c>
       <c r="K152">
         <v>147.8976236309524</v>
@@ -6512,22 +6557,22 @@
         <v>166.6910861904741</v>
       </c>
       <c r="E153">
-        <v>427.1617510163181</v>
+        <v>228.90186008306</v>
       </c>
       <c r="F153">
-        <v>-260.470664825844</v>
+        <v>-62.21077389258588</v>
       </c>
       <c r="G153">
-        <v>-947.2705622059909</v>
+        <v>-230.7178070817174</v>
       </c>
       <c r="H153">
-        <v>0.3902294290017233</v>
+        <v>0.7282207585818137</v>
       </c>
       <c r="I153">
         <v>4.673176230768131</v>
       </c>
       <c r="J153">
-        <v>7.055238078969496</v>
+        <v>5.242107519578306</v>
       </c>
       <c r="K153">
         <v>109.34672625</v>
@@ -6553,22 +6598,22 @@
         <v>231.6922044642872</v>
       </c>
       <c r="E154">
-        <v>416.4406157610447</v>
+        <v>223.1567581484994</v>
       </c>
       <c r="F154">
-        <v>-184.7484112967575</v>
+        <v>8.53544631578788</v>
       </c>
       <c r="G154">
-        <v>-1132.018973502748</v>
+        <v>-222.1823607659296</v>
       </c>
       <c r="H154">
-        <v>0.5563631300488546</v>
+        <v>1.038248657072299</v>
       </c>
       <c r="I154">
         <v>-4.752043024451422</v>
       </c>
       <c r="J154">
-        <v>-3.018980602898312</v>
+        <v>-4.832111162289505</v>
       </c>
       <c r="K154">
         <v>106.6022833333334</v>
@@ -6594,22 +6639,22 @@
         <v>296.824785833335</v>
       </c>
       <c r="E155">
-        <v>408.2783905875104</v>
+        <v>218.7828915272639</v>
       </c>
       <c r="F155">
-        <v>-111.4536047541754</v>
+        <v>78.0418943060711</v>
       </c>
       <c r="G155">
-        <v>-1243.472578256924</v>
+        <v>-144.1404664598585</v>
       </c>
       <c r="H155">
-        <v>0.7270156654781696</v>
+        <v>1.356709310135184</v>
       </c>
       <c r="I155">
         <v>6.063759956652471</v>
       </c>
       <c r="J155">
-        <v>7.130170176083888</v>
+        <v>5.317039616692692</v>
       </c>
       <c r="K155">
         <v>104.5128813690475</v>
@@ -6635,22 +6680,22 @@
         <v>214.4858346428574</v>
       </c>
       <c r="E156">
-        <v>477.7477273357578</v>
+        <v>256.0092123824821</v>
       </c>
       <c r="F156">
-        <v>-263.2618926929005</v>
+        <v>-41.52337773962475</v>
       </c>
       <c r="G156">
-        <v>-1506.734470949824</v>
+        <v>-185.6638441994832</v>
       </c>
       <c r="H156">
-        <v>0.4489520773630352</v>
+        <v>0.8378051424274994</v>
       </c>
       <c r="I156">
         <v>4.446838456039343</v>
       </c>
       <c r="J156">
-        <v>6.599500941693877</v>
+        <v>4.786370382302681</v>
       </c>
       <c r="K156">
         <v>122.2959448809524</v>
@@ -6676,22 +6721,22 @@
         <v>230.5803776785705</v>
       </c>
       <c r="E157">
-        <v>560.5127330505487</v>
+        <v>300.3602426721229</v>
       </c>
       <c r="F157">
-        <v>-329.9323553719782</v>
+        <v>-69.77986499355242</v>
       </c>
       <c r="G157">
-        <v>-1836.666826321803</v>
+        <v>-255.4437091930356</v>
       </c>
       <c r="H157">
-        <v>0.4113740225376398</v>
+        <v>0.7676794226400828</v>
       </c>
       <c r="I157">
         <v>3.896906041954181</v>
       </c>
       <c r="J157">
-        <v>6.196366774337224</v>
+        <v>4.383236214946034</v>
       </c>
       <c r="K157">
         <v>143.4824916666668</v>
@@ -6717,22 +6762,22 @@
         <v>227.9362786309537</v>
       </c>
       <c r="E158">
-        <v>556.6942598614339</v>
+        <v>298.3140491316524</v>
       </c>
       <c r="F158">
-        <v>-328.7579812304802</v>
+        <v>-70.37777050069866</v>
       </c>
       <c r="G158">
-        <v>-2165.424807552283</v>
+        <v>-325.8214796937343</v>
       </c>
       <c r="H158">
-        <v>0.4094460731240323</v>
+        <v>0.764081608943468</v>
       </c>
       <c r="I158">
         <v>4.056309499975893</v>
       </c>
       <c r="J158">
-        <v>6.363301744966877</v>
+        <v>4.550171185575677</v>
       </c>
       <c r="K158">
         <v>142.5050222619046</v>
@@ -6758,22 +6803,22 @@
         <v>230.3173567857129</v>
       </c>
       <c r="E159">
-        <v>424.4801274280181</v>
+        <v>227.464866658569</v>
       </c>
       <c r="F159">
-        <v>-194.1627706423052</v>
+        <v>2.852490127143852</v>
       </c>
       <c r="G159">
-        <v>-2359.587578194588</v>
+        <v>-322.9689895665905</v>
       </c>
       <c r="H159">
-        <v>0.5425869007843467</v>
+        <v>1.012540354776747</v>
       </c>
       <c r="I159">
         <v>4.932537679738197</v>
       </c>
       <c r="J159">
-        <v>6.719416785309579</v>
+        <v>4.90628622591839</v>
       </c>
       <c r="K159">
         <v>108.6602725595239</v>
@@ -6799,22 +6844,22 @@
         <v>214.2269900000214</v>
       </c>
       <c r="E160">
-        <v>339.7610908698746</v>
+        <v>182.066735841695</v>
       </c>
       <c r="F160">
-        <v>-125.5341008698531</v>
+        <v>32.16025415832647</v>
       </c>
       <c r="G160">
-        <v>-2485.121679064441</v>
+        <v>-290.8087354082641</v>
       </c>
       <c r="H160">
-        <v>0.6305224340184039</v>
+        <v>1.176639922771447</v>
       </c>
       <c r="I160">
         <v>5.766441925647495</v>
       </c>
       <c r="J160">
-        <v>7.209801863878333</v>
+        <v>5.396671304487156</v>
       </c>
       <c r="K160">
         <v>86.97352444444469</v>

--- a/All Teraco Data/Operations CT2/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations CT2/Outputs/Data Analysis Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="30">
   <si>
     <t>Total Incoming</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.7362428441228226</t>
+    <t>R2 = 0.7326685428835373</t>
   </si>
   <si>
     <t>const</t>
@@ -52,16 +52,16 @@
     <t>Total UPS TEM1</t>
   </si>
   <si>
-    <t>R2 = 0.6338087051747936</t>
+    <t>CDD 18</t>
+  </si>
+  <si>
+    <t>R2 = 0.5718790239239111</t>
   </si>
   <si>
     <t>Total UPS TEM2</t>
   </si>
   <si>
-    <t>CDD 18</t>
-  </si>
-  <si>
-    <t>R2 = 0.5390326370008767</t>
+    <t>R2 = 0.5218654144726897</t>
   </si>
   <si>
     <t>Total UPS Total</t>
@@ -502,7 +502,7 @@
         <v>44926</v>
       </c>
       <c r="B3">
-        <v>655170.6531999998</v>
+        <v>1292247.1686</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4313.700000000012</v>
+        <v>4470.200000000012</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>650856.9531999999</v>
+        <v>1287776.9686</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>50.11206752109763</v>
+        <v>39.85153253695432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>27.68934416612542</v>
+        <v>20.36136026854746</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22.19858831277695</v>
+        <v>39.7871071944982</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +588,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +612,15 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2.953140597148355</v>
+        <v>2.913929046437862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -643,18 +651,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1.438642693705954</v>
+        <v>1.909623862449618</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9493152001076046</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +672,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +696,15 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2.093358145535336</v>
+        <v>2.117408512613088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +714,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -739,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -867,7 +883,7 @@
         <v>-0</v>
       </c>
       <c r="J5">
-        <v>35.09335814553534</v>
+        <v>35.11740851261309</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -893,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-3.903148435606414E-18</v>
+        <v>-3.851322761284929E-18</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1347,7 +1363,7 @@
         <v>0.02474528812544762</v>
       </c>
       <c r="E20">
-        <v>0.0290542484190682</v>
+        <v>0.02866846856952779</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1356,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.8516925913391508</v>
+        <v>0.8631534700025734</v>
       </c>
       <c r="I20">
         <v>1.532846772954966</v>
       </c>
       <c r="J20">
-        <v>3.292878102032542</v>
+        <v>3.316928469110294</v>
       </c>
       <c r="K20">
         <v>0.009838423692770973</v>
@@ -1388,7 +1404,7 @@
         <v>0.0005487533670123012</v>
       </c>
       <c r="E21">
-        <v>0.007133084130041013</v>
+        <v>0.00703837164315251</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1397,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07693072968272226</v>
+        <v>0.07796595502969388</v>
       </c>
       <c r="I21">
         <v>6.205581384884301</v>
       </c>
       <c r="J21">
-        <v>7.539338690546909</v>
+        <v>7.563389057624661</v>
       </c>
       <c r="K21">
         <v>0.002415423138650744</v>
@@ -1429,7 +1445,7 @@
         <v>0.0005487533670122959</v>
       </c>
       <c r="E22">
-        <v>0.007133084130041013</v>
+        <v>0.00703837164315251</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1438,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07693072968272151</v>
+        <v>0.07796595502969313</v>
       </c>
       <c r="I22">
         <v>1.643134392622405</v>
       </c>
       <c r="J22">
-        <v>3.30165787302353</v>
+        <v>3.325708240101282</v>
       </c>
       <c r="K22">
         <v>0.002415423138650744</v>
@@ -1470,7 +1486,7 @@
         <v>0.0005487533670122959</v>
       </c>
       <c r="E23">
-        <v>2.961152747167417</v>
+        <v>2.921834811807619</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1479,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001853174806795168</v>
+        <v>0.0001878112221795334</v>
       </c>
       <c r="I23">
         <v>3.862268659820468</v>
       </c>
       <c r="J23">
-        <v>5.361224725961888</v>
+        <v>5.38527509303964</v>
       </c>
       <c r="K23">
         <v>1.002713094671753</v>
@@ -1511,7 +1527,7 @@
         <v>0.09828089622415517</v>
       </c>
       <c r="E24">
-        <v>3.344829698270338</v>
+        <v>3.3004173328522</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1520,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02938292980206966</v>
+        <v>0.02977832386403735</v>
       </c>
       <c r="I24">
         <v>28.06548257149982</v>
       </c>
       <c r="J24">
-        <v>29.17508171485754</v>
+        <v>29.19913208193529</v>
       </c>
       <c r="K24">
         <v>1.132634762293475</v>
@@ -1552,7 +1568,7 @@
         <v>2.873089534547788</v>
       </c>
       <c r="E25">
-        <v>15.66604192440487</v>
+        <v>15.45802954668581</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1561,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.1833960070074901</v>
+        <v>0.185863892022627</v>
       </c>
       <c r="I25">
         <v>23.35505915665882</v>
       </c>
       <c r="J25">
-        <v>18.24185637376457</v>
+        <v>18.26590674084233</v>
       </c>
       <c r="K25">
         <v>5.304875067422286</v>
@@ -1593,7 +1609,7 @@
         <v>22.18313739060145</v>
       </c>
       <c r="E26">
-        <v>23.89014805420447</v>
+        <v>23.57293669189642</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1602,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.9285475058702032</v>
+        <v>0.9410425896671272</v>
       </c>
       <c r="I26">
         <v>12.35058533783109</v>
       </c>
       <c r="J26">
-        <v>8.044876345628774</v>
+        <v>8.068926712706528</v>
       </c>
       <c r="K26">
         <v>8.089742857916601</v>
@@ -1634,7 +1650,7 @@
         <v>22.53790251653107</v>
       </c>
       <c r="E27">
-        <v>37.23113475057644</v>
+        <v>36.73678289692911</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1643,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.6053509426322851</v>
+        <v>0.6134969025394723</v>
       </c>
       <c r="I27">
         <v>11.47344227702033</v>
       </c>
       <c r="J27">
-        <v>6.052737431424254</v>
+        <v>6.076787798502005</v>
       </c>
       <c r="K27">
         <v>12.60730179474963</v>
@@ -1675,7 +1691,7 @@
         <v>85.95112544660712</v>
       </c>
       <c r="E28">
-        <v>77.94123961861351</v>
+        <v>76.90634244077675</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1684,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1.102768263209413</v>
+        <v>1.117607764441476</v>
       </c>
       <c r="I28">
         <v>11.59949244100114</v>
       </c>
       <c r="J28">
-        <v>7.694203877034982</v>
+        <v>7.718254244112734</v>
       </c>
       <c r="K28">
         <v>26.39266132261905</v>
@@ -1716,7 +1732,7 @@
         <v>226.5990056852382</v>
       </c>
       <c r="E29">
-        <v>232.3782581788779</v>
+        <v>229.2927593498022</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1725,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.9751299775679054</v>
+        <v>0.9882519026235166</v>
       </c>
       <c r="I29">
         <v>6.368730693536502</v>
       </c>
       <c r="J29">
-        <v>4.805507460768684</v>
+        <v>4.829557827846436</v>
       </c>
       <c r="K29">
         <v>78.68851838726189</v>
@@ -1757,7 +1773,7 @@
         <v>981.8235391248809</v>
       </c>
       <c r="E30">
-        <v>384.8105772619327</v>
+        <v>379.7010950114733</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1766,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2.551446340459019</v>
+        <v>2.585780109733983</v>
       </c>
       <c r="I30">
         <v>8.26929816312766</v>
       </c>
       <c r="J30">
-        <v>5.152810983925925</v>
+        <v>5.176861351003677</v>
       </c>
       <c r="K30">
         <v>130.3055390026191</v>
@@ -1798,7 +1814,7 @@
         <v>874.526569761905</v>
       </c>
       <c r="E31">
-        <v>424.7232171835543</v>
+        <v>419.0837782809166</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1807,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2.059050540163801</v>
+        <v>2.086758340657366</v>
       </c>
       <c r="I31">
         <v>8.904645680400906</v>
       </c>
       <c r="J31">
-        <v>5.505021093825067</v>
+        <v>5.529071460902819</v>
       </c>
       <c r="K31">
         <v>143.8208589166667</v>
@@ -1839,7 +1855,7 @@
         <v>9.495030059523872</v>
       </c>
       <c r="E32">
-        <v>63.25221274526207</v>
+        <v>62.41235522205212</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1848,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.1501138007260481</v>
+        <v>0.1521338207113357</v>
       </c>
       <c r="I32">
         <v>5.233280633754554</v>
       </c>
       <c r="J32">
-        <v>6.920343862436426</v>
+        <v>6.944394229514178</v>
       </c>
       <c r="K32">
         <v>21.41862558333334</v>
@@ -1880,7 +1896,7 @@
         <v>26.24701678571381</v>
       </c>
       <c r="E33">
-        <v>79.19450657022266</v>
+        <v>78.1429686199573</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1889,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.3314247152034502</v>
+        <v>0.3358845619669799</v>
       </c>
       <c r="I33">
         <v>5.286878536415538</v>
       </c>
       <c r="J33">
-        <v>6.745722635924748</v>
+        <v>6.7697730030025</v>
       </c>
       <c r="K33">
         <v>26.81704577380953</v>
@@ -1921,7 +1937,7 @@
         <v>43.64149517857177</v>
       </c>
       <c r="E34">
-        <v>102.5973110130581</v>
+        <v>101.2350326076772</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1930,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.4253668517005996</v>
+        <v>0.4310908393510233</v>
       </c>
       <c r="I34">
         <v>4.977281779546633</v>
       </c>
       <c r="J34">
-        <v>6.129206675810902</v>
+        <v>6.153257042888653</v>
       </c>
       <c r="K34">
         <v>34.74176309523808</v>
@@ -1962,7 +1978,7 @@
         <v>21.75127101190446</v>
       </c>
       <c r="E35">
-        <v>107.2850819240802</v>
+        <v>105.8605596936088</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1971,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.2027427357262648</v>
+        <v>0.205470961752507</v>
       </c>
       <c r="I35">
         <v>4.411084482923154</v>
       </c>
       <c r="J35">
-        <v>5.948356573069543</v>
+        <v>5.972406940147295</v>
       </c>
       <c r="K35">
         <v>36.32914803571426</v>
@@ -2003,7 +2019,7 @@
         <v>11.49243000000015</v>
       </c>
       <c r="E36">
-        <v>107.8220590374934</v>
+        <v>106.3904068703934</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2012,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.1065870017934256</v>
+        <v>0.1080212994579523</v>
       </c>
       <c r="I36">
         <v>4.48291214457495</v>
       </c>
       <c r="J36">
-        <v>6.231181677141693</v>
+        <v>6.255232044219446</v>
       </c>
       <c r="K36">
         <v>36.5109805952381</v>
@@ -2044,7 +2060,7 @@
         <v>553.7170922023807</v>
       </c>
       <c r="E37">
-        <v>449.7071347192993</v>
+        <v>443.7359614758228</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2053,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1.231283761037065</v>
+        <v>1.247852642730987</v>
       </c>
       <c r="I37">
         <v>6.055634518156402</v>
       </c>
       <c r="J37">
-        <v>4.696795130856231</v>
+        <v>4.720845497933982</v>
       </c>
       <c r="K37">
         <v>152.2809767857144</v>
@@ -2085,7 +2101,7 @@
         <v>684.0296940476196</v>
       </c>
       <c r="E38">
-        <v>440.5324208719994</v>
+        <v>434.6830687018659</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2094,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1.552734059149691</v>
+        <v>1.573628565958183</v>
       </c>
       <c r="I38">
         <v>7.402789257156477</v>
       </c>
       <c r="J38">
-        <v>5.392405493994002</v>
+        <v>5.416455861071755</v>
       </c>
       <c r="K38">
         <v>149.1742117857142</v>
@@ -2126,7 +2142,7 @@
         <v>30.52280160714249</v>
       </c>
       <c r="E39">
-        <v>145.6817806359853</v>
+        <v>143.7474302923143</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2135,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.2095169449047972</v>
+        <v>0.2123363286917446</v>
       </c>
       <c r="I39">
         <v>4.570146703328066</v>
       </c>
       <c r="J39">
-        <v>6.100616575804102</v>
+        <v>6.124666942881854</v>
       </c>
       <c r="K39">
         <v>49.33113607142858</v>
@@ -2167,7 +2183,7 @@
         <v>20.31134926568068</v>
       </c>
       <c r="E40">
-        <v>95.71459373687381</v>
+        <v>94.44370346850262</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2176,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.2122074437417351</v>
+        <v>0.2150630324704982</v>
       </c>
       <c r="I40">
         <v>5.310984863027415</v>
       </c>
       <c r="J40">
-        <v>6.453903270440419</v>
+        <v>6.477953637518172</v>
       </c>
       <c r="K40">
         <v>32.41111981911691</v>
@@ -2208,7 +2224,7 @@
         <v>132.080915139081</v>
       </c>
       <c r="E41">
-        <v>188.4969328081705</v>
+        <v>185.9940865005083</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2217,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.7007059116102279</v>
+        <v>0.7101350243128296</v>
       </c>
       <c r="I41">
         <v>5.155757995731522</v>
       </c>
       <c r="J41">
-        <v>5.088773082623464</v>
+        <v>5.112823449701216</v>
       </c>
       <c r="K41">
         <v>63.82931208564504</v>
@@ -2249,7 +2265,7 @@
         <v>24.045116666667</v>
       </c>
       <c r="E42">
-        <v>100.0935656409737</v>
+        <v>98.76453175456984</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2258,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.2402263972982498</v>
+        <v>0.2434590256188242</v>
       </c>
       <c r="I42">
         <v>4.706533329540142</v>
       </c>
       <c r="J42">
-        <v>5.352271711685803</v>
+        <v>5.376322078763556</v>
       </c>
       <c r="K42">
         <v>33.8939384523809</v>
@@ -2290,7 +2306,7 @@
         <v>25.5757427976184</v>
       </c>
       <c r="E43">
-        <v>98.46246452623802</v>
+        <v>97.15508826227723</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2299,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.2597511947388138</v>
+        <v>0.2632465602684115</v>
       </c>
       <c r="I43">
         <v>4.969791479821648</v>
       </c>
       <c r="J43">
-        <v>5.365756651218731</v>
+        <v>5.389807018296482</v>
       </c>
       <c r="K43">
         <v>33.34161083333332</v>
@@ -2331,22 +2347,22 @@
         <v>22.51976583333315</v>
       </c>
       <c r="E44">
-        <v>82.75687638113698</v>
+        <v>81.65803758626399</v>
       </c>
       <c r="F44">
-        <v>-60.23711054780383</v>
+        <v>-59.13827175293084</v>
       </c>
       <c r="G44">
-        <v>-60.23711054780383</v>
+        <v>-59.13827175293084</v>
       </c>
       <c r="H44">
-        <v>0.2721195726336784</v>
+        <v>0.275781374363095</v>
       </c>
       <c r="I44">
         <v>5.261234011975835</v>
       </c>
       <c r="J44">
-        <v>5.664462239400327</v>
+        <v>5.688512606478079</v>
       </c>
       <c r="K44">
         <v>28.02334452380953</v>
@@ -2372,22 +2388,22 @@
         <v>28.71392553571578</v>
       </c>
       <c r="E45">
-        <v>94.50468764649428</v>
+        <v>93.24986240870906</v>
       </c>
       <c r="F45">
-        <v>-65.79076211077849</v>
+        <v>-64.53593687299328</v>
       </c>
       <c r="G45">
-        <v>-126.0278726585823</v>
+        <v>-123.6742086259241</v>
       </c>
       <c r="H45">
-        <v>0.3038359921692302</v>
+        <v>0.3079245887770238</v>
       </c>
       <c r="I45">
         <v>5.829166982169057</v>
       </c>
       <c r="J45">
-        <v>5.8876213149526</v>
+        <v>5.911671682030352</v>
       </c>
       <c r="K45">
         <v>32.00141833333332</v>
@@ -2413,22 +2429,22 @@
         <v>23.40762553571368</v>
       </c>
       <c r="E46">
-        <v>102.153134936653</v>
+        <v>100.7967542635918</v>
       </c>
       <c r="F46">
-        <v>-78.74550940093928</v>
+        <v>-77.38912872787807</v>
       </c>
       <c r="G46">
-        <v>-204.7733820595216</v>
+        <v>-201.0633373538022</v>
       </c>
       <c r="H46">
-        <v>0.2291425079634529</v>
+        <v>0.2322259849211099</v>
       </c>
       <c r="I46">
         <v>3.486142972763887</v>
       </c>
       <c r="J46">
-        <v>4.410216108171139</v>
+        <v>4.43426647524889</v>
       </c>
       <c r="K46">
         <v>34.59135505952383</v>
@@ -2454,22 +2470,22 @@
         <v>68.95254630952314</v>
       </c>
       <c r="E47">
-        <v>155.5876899857527</v>
+        <v>153.5218098167908</v>
       </c>
       <c r="F47">
-        <v>-86.63514367622952</v>
+        <v>-84.56926350726766</v>
       </c>
       <c r="G47">
-        <v>-291.4085257357511</v>
+        <v>-285.6326008610698</v>
       </c>
       <c r="H47">
-        <v>0.4431748187522882</v>
+        <v>0.4491384409277707</v>
       </c>
       <c r="I47">
         <v>4.673176230768131</v>
       </c>
       <c r="J47">
-        <v>5.242107519578306</v>
+        <v>5.266157886656057</v>
       </c>
       <c r="K47">
         <v>52.68550035714283</v>
@@ -2495,22 +2511,22 @@
         <v>125.5149330357138</v>
       </c>
       <c r="E48">
-        <v>139.7272623509849</v>
+        <v>137.8719755967393</v>
       </c>
       <c r="F48">
-        <v>-14.21232931527108</v>
+        <v>-12.35704256102552</v>
       </c>
       <c r="G48">
-        <v>-305.6208550510222</v>
+        <v>-297.9896434220954</v>
       </c>
       <c r="H48">
-        <v>0.8982852087979029</v>
+        <v>0.9103730652473673</v>
       </c>
       <c r="I48">
         <v>-4.752043024451422</v>
       </c>
       <c r="J48">
-        <v>-4.832111162289505</v>
+        <v>-4.808060795211754</v>
       </c>
       <c r="K48">
         <v>47.31480190476196</v>
@@ -2536,22 +2552,22 @@
         <v>156.2110429761919</v>
       </c>
       <c r="E49">
-        <v>170.6231089272616</v>
+        <v>168.3575897391323</v>
       </c>
       <c r="F49">
-        <v>-14.41206595106974</v>
+        <v>-12.1465467629404</v>
       </c>
       <c r="G49">
-        <v>-320.0329210020919</v>
+        <v>-310.1361901850357</v>
       </c>
       <c r="H49">
-        <v>0.9155327432392892</v>
+        <v>0.9278526927015212</v>
       </c>
       <c r="I49">
         <v>6.063759956652471</v>
       </c>
       <c r="J49">
-        <v>5.317039616692692</v>
+        <v>5.341089983770444</v>
       </c>
       <c r="K49">
         <v>57.77683226190472</v>
@@ -2577,22 +2593,22 @@
         <v>65.48851440476123</v>
       </c>
       <c r="E50">
-        <v>124.0573110542575</v>
+        <v>122.4100885860456</v>
       </c>
       <c r="F50">
-        <v>-58.56879664949631</v>
+        <v>-56.9215741812844</v>
       </c>
       <c r="G50">
-        <v>-378.6017176515883</v>
+        <v>-367.0577643663202</v>
       </c>
       <c r="H50">
-        <v>0.5278891977282923</v>
+        <v>0.5349927866339828</v>
       </c>
       <c r="I50">
         <v>4.446838456039343</v>
       </c>
       <c r="J50">
-        <v>4.786370382302681</v>
+        <v>4.810420749380433</v>
       </c>
       <c r="K50">
         <v>42.0086030357143</v>
@@ -2618,22 +2634,22 @@
         <v>63.02234851190518</v>
       </c>
       <c r="E51">
-        <v>119.7876582695143</v>
+        <v>118.1971278893278</v>
       </c>
       <c r="F51">
-        <v>-56.76530975760909</v>
+        <v>-55.17477937742267</v>
       </c>
       <c r="G51">
-        <v>-435.3670274091974</v>
+        <v>-422.2325437437428</v>
       </c>
       <c r="H51">
-        <v>0.5261172095885628</v>
+        <v>0.5331969535750076</v>
       </c>
       <c r="I51">
         <v>3.896906041954181</v>
       </c>
       <c r="J51">
-        <v>4.383236214946034</v>
+        <v>4.407286582023787</v>
       </c>
       <c r="K51">
         <v>40.56280232142858</v>
@@ -2659,22 +2675,22 @@
         <v>58.37697386904828</v>
       </c>
       <c r="E52">
-        <v>117.5774030412617</v>
+        <v>116.0162202427818</v>
       </c>
       <c r="F52">
-        <v>-59.20042917221344</v>
+        <v>-57.63924637373356</v>
       </c>
       <c r="G52">
-        <v>-494.5674565814108</v>
+        <v>-479.8717901174764</v>
       </c>
       <c r="H52">
-        <v>0.4964982416609585</v>
+        <v>0.5031794153169742</v>
       </c>
       <c r="I52">
         <v>4.056309499975893</v>
       </c>
       <c r="J52">
-        <v>4.550171185575677</v>
+        <v>4.574221552653429</v>
       </c>
       <c r="K52">
         <v>39.81436005952379</v>
@@ -2700,22 +2716,22 @@
         <v>44.57862702380918</v>
       </c>
       <c r="E53">
-        <v>108.1318575487085</v>
+        <v>106.6960919032173</v>
       </c>
       <c r="F53">
-        <v>-63.55323052489933</v>
+        <v>-62.1174648794081</v>
       </c>
       <c r="G53">
-        <v>-558.1206871063101</v>
+        <v>-541.9892549968845</v>
       </c>
       <c r="H53">
-        <v>0.412261733353915</v>
+        <v>0.4178093707897559</v>
       </c>
       <c r="I53">
-        <v>4.932537679738197</v>
+        <v>16.61026078594642</v>
       </c>
       <c r="J53">
-        <v>4.90628622591839</v>
+        <v>16.60805969920436</v>
       </c>
       <c r="K53">
         <v>36.61588535714284</v>
@@ -2738,156 +2754,171 @@
         <v>25</v>
       </c>
       <c r="D54">
-        <v>42.8156122222103</v>
+        <v>76.83826281249986</v>
       </c>
       <c r="E54">
-        <v>94.42231635207337</v>
+        <v>119.2304316937901</v>
       </c>
       <c r="F54">
-        <v>-51.60670412986307</v>
+        <v>-42.39216888129022</v>
       </c>
       <c r="G54">
-        <v>-609.7273912361732</v>
+        <v>-584.3814238781747</v>
       </c>
       <c r="H54">
-        <v>0.4534480181842111</v>
+        <v>0.644451770583515</v>
       </c>
       <c r="I54">
-        <v>5.766441925647495</v>
+        <v>4.448585950290379</v>
       </c>
       <c r="J54">
-        <v>5.396671304487156</v>
+        <v>4.907348419139488</v>
       </c>
       <c r="K54">
-        <v>31.97352555555618</v>
+        <v>40.91741075148812</v>
       </c>
       <c r="L54">
-        <v>184.1805555555555</v>
+        <v>229.2525851190479</v>
+      </c>
+      <c r="M54">
+        <v>26.9</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
-        <v>44269</v>
+        <v>44640</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>-0.0009869408871169482</v>
+        <v>65.77459895833314</v>
       </c>
       <c r="E55">
-        <v>10.38573982946991</v>
+        <v>106.5466963003589</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>-40.77209734202572</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>-625.1535212202004</v>
       </c>
       <c r="H55">
-        <v>-9.502846242272201E-05</v>
-      </c>
-      <c r="J55" t="s">
-        <v>29</v>
+        <v>0.61733119132021</v>
+      </c>
+      <c r="I55">
+        <v>4.302465834969686</v>
+      </c>
+      <c r="J55">
+        <v>4.6396909726353</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>36.56461588541666</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>208.9860491071429</v>
       </c>
       <c r="M55">
-        <v>10.8</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>44276</v>
+        <v>44647</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>50.63743712797614</v>
       </c>
       <c r="E56">
-        <v>12.19587497852526</v>
+        <v>86.76188504111735</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>-36.12444791314121</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>-661.2779691333417</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.5836368942880683</v>
+      </c>
+      <c r="I56">
+        <v>6.271364367964313</v>
+      </c>
+      <c r="J56">
+        <v>5.364443187679679</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>29.77487909226191</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>189.6728050595238</v>
       </c>
       <c r="M56">
-        <v>11.3</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
-        <v>44283</v>
+        <v>44654</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>68.75864388020879</v>
       </c>
       <c r="E57">
-        <v>20.03789661369986</v>
+        <v>83.2854182251875</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>-14.5267743449787</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>-675.8047434783203</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.8255784187130916</v>
+      </c>
+      <c r="I57">
+        <v>7.686446829849205</v>
+      </c>
+      <c r="J57">
+        <v>5.821521400346698</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>28.58182779947917</v>
       </c>
       <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>22.6</v>
+        <v>205.4827473958333</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58" s="3">
-        <v>44290</v>
+        <v>44269</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-0.0009869408871169482</v>
       </c>
       <c r="E58">
-        <v>10.82106314408371</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2895,31 +2926,28 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>-0</v>
-      </c>
-      <c r="J58">
-        <v>35.09335814553534</v>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
       </c>
       <c r="K58">
-        <v>-2.64338815386942E-18</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>44297</v>
+        <v>44276</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -2928,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>9.538357486795455</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2936,28 +2964,22 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>29</v>
-      </c>
       <c r="K59">
-        <v>2.64338815386942E-18</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" s="3">
-        <v>44304</v>
+        <v>44283</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
@@ -2966,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>12.64679969857637</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2974,9 +2996,6 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0</v>
       </c>
@@ -2984,15 +3003,15 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>13.5</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>44311</v>
+        <v>44290</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -3001,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>10.45094322975604</v>
+        <v>-5.047877096345687E-18</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3010,24 +3029,30 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="I61">
+        <v>-0</v>
+      </c>
+      <c r="J61">
+        <v>35.11740851261309</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>-2.64338815386942E-18</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B62" s="3">
-        <v>44318</v>
+        <v>44297</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -3036,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>3.985428634737461</v>
+        <v>5.047877096345687E-18</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3047,22 +3072,25 @@
       <c r="H62">
         <v>0</v>
       </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
       <c r="K62">
-        <v>0</v>
+        <v>2.64338815386942E-18</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B63" s="3">
-        <v>44325</v>
+        <v>44304</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -3071,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>7.34532636083259</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3079,9 +3107,6 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
       <c r="K63">
         <v>0</v>
       </c>
@@ -3089,15 +3114,15 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" s="3">
-        <v>44332</v>
+        <v>44311</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
@@ -3106,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1.975479725938206</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3114,9 +3139,6 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="K64">
         <v>0</v>
       </c>
@@ -3124,15 +3146,15 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>2.3</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="3">
-        <v>44339</v>
+        <v>44318</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -3141,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.8724658743846079</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3149,9 +3171,6 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
       <c r="K65">
         <v>0</v>
       </c>
@@ -3159,15 +3178,15 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B66" s="3">
-        <v>44346</v>
+        <v>44325</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -3176,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2.066455765948518</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3184,9 +3203,6 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="K66">
         <v>0</v>
       </c>
@@ -3194,15 +3210,15 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B67" s="3">
-        <v>44353</v>
+        <v>44332</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -3211,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2.498733223140373</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3219,9 +3235,6 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
       <c r="K67">
         <v>0</v>
       </c>
@@ -3229,15 +3242,15 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68" s="3">
-        <v>44360</v>
+        <v>44339</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -3246,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>8.781165600995342</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3254,9 +3267,6 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="K68">
         <v>0</v>
       </c>
@@ -3264,15 +3274,15 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>10.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69" s="3">
-        <v>44367</v>
+        <v>44346</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -3281,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2.223544828823467</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3289,9 +3299,6 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
       <c r="K69">
         <v>0</v>
       </c>
@@ -3299,15 +3306,15 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70" s="3">
-        <v>44374</v>
+        <v>44353</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -3316,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>3.687072428989357</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3324,9 +3331,6 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
       <c r="K70">
         <v>0</v>
       </c>
@@ -3334,15 +3338,15 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B71" s="3">
-        <v>44381</v>
+        <v>44360</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -3351,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.02599315428866061</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3359,9 +3363,6 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>0</v>
       </c>
@@ -3369,15 +3370,15 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B72" s="3">
-        <v>44388</v>
+        <v>44367</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -3386,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.2158561943101815</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3394,9 +3395,6 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
       <c r="K72">
         <v>0</v>
       </c>
@@ -3404,24 +3402,24 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B73" s="3">
-        <v>44395</v>
+        <v>44374</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
       </c>
       <c r="D73">
-        <v>0.5250685632186767</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>2.894534463519832</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3429,40 +3427,31 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0.1814000039855041</v>
-      </c>
-      <c r="I73">
-        <v>1.532846772954966</v>
-      </c>
-      <c r="J73">
-        <v>3.292878102032542</v>
-      </c>
       <c r="K73">
-        <v>1.639635378586196</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>2.504938095696428</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B74" s="3">
-        <v>44402</v>
+        <v>44381</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
       </c>
       <c r="D74">
-        <v>2.8366939195968</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>7.083961417476509</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3470,40 +3459,31 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0.400438928506658</v>
-      </c>
-      <c r="I74">
-        <v>6.205581384884301</v>
-      </c>
-      <c r="J74">
-        <v>7.539338690546909</v>
-      </c>
       <c r="K74">
-        <v>3.732760374506854</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>23.17466295889881</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B75" s="3">
-        <v>44409</v>
+        <v>44388</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75">
-        <v>5.328812189285715</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>20.27257604700567</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3511,40 +3491,31 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0.2628581674538988</v>
-      </c>
-      <c r="I75">
-        <v>1.643134392622405</v>
-      </c>
-      <c r="J75">
-        <v>3.30165787302353</v>
-      </c>
       <c r="K75">
-        <v>12.25364732891406</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>20.13408378579572</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B76" s="3">
-        <v>44416</v>
+        <v>44395</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
       </c>
       <c r="D76">
-        <v>23.00219148321951</v>
+        <v>0.5250685632186767</v>
       </c>
       <c r="E76">
-        <v>54.91289790718456</v>
+        <v>3.131086844664812</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3553,39 +3524,39 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.4188850408532164</v>
+        <v>0.1676953049428708</v>
       </c>
       <c r="I76">
-        <v>3.862268659820468</v>
+        <v>1.532846772954966</v>
       </c>
       <c r="J76">
-        <v>5.361224725961888</v>
+        <v>3.316928469110294</v>
       </c>
       <c r="K76">
-        <v>37.69624344336947</v>
+        <v>1.639635378586196</v>
       </c>
       <c r="L76">
-        <v>144.7933892419706</v>
+        <v>2.504938095696428</v>
       </c>
       <c r="M76">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B77" s="3">
-        <v>44423</v>
+        <v>44402</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
       </c>
       <c r="D77">
-        <v>6.086184388871223</v>
+        <v>2.8366939195968</v>
       </c>
       <c r="E77">
-        <v>7.812472900984736</v>
+        <v>7.128168283964661</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3594,39 +3565,39 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.779034303991516</v>
+        <v>0.3979555204915898</v>
       </c>
       <c r="I77">
-        <v>28.06548257149982</v>
+        <v>6.205581384884301</v>
       </c>
       <c r="J77">
-        <v>29.17508171485754</v>
+        <v>7.563389057624661</v>
       </c>
       <c r="K77">
-        <v>5.153930617444488</v>
+        <v>3.732760374506854</v>
       </c>
       <c r="L77">
-        <v>161.7075729066356</v>
+        <v>23.17466295889881</v>
       </c>
       <c r="M77">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B78" s="3">
-        <v>44430</v>
+        <v>44409</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
       </c>
       <c r="D78">
-        <v>293.5474869022366</v>
+        <v>5.328812189285715</v>
       </c>
       <c r="E78">
-        <v>53.03031941951281</v>
+        <v>23.39985734133631</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3635,39 +3606,39 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5.535465185114917</v>
+        <v>0.2277284049878485</v>
       </c>
       <c r="I78">
-        <v>23.35505915665882</v>
+        <v>1.643134392622405</v>
       </c>
       <c r="J78">
-        <v>18.24185637376457</v>
+        <v>3.325708240101282</v>
       </c>
       <c r="K78">
-        <v>35.82716827205989</v>
+        <v>12.25364732891406</v>
       </c>
       <c r="L78">
-        <v>939.0886756300506</v>
+        <v>20.13408378579572</v>
       </c>
       <c r="M78">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B79" s="3">
-        <v>44437</v>
+        <v>44416</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
       <c r="D79">
-        <v>766.6021570773812</v>
+        <v>23.00219148321951</v>
       </c>
       <c r="E79">
-        <v>165.8179299296676</v>
+        <v>71.98564600416829</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3676,39 +3647,39 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>4.623155996474801</v>
+        <v>0.3195385852602834</v>
       </c>
       <c r="I79">
-        <v>12.35058533783109</v>
+        <v>3.862268659820468</v>
       </c>
       <c r="J79">
-        <v>8.044876345628774</v>
+        <v>5.38527509303964</v>
       </c>
       <c r="K79">
-        <v>115.1759265732143</v>
+        <v>37.69624344336947</v>
       </c>
       <c r="L79">
-        <v>1464.289976488095</v>
+        <v>144.7933892419706</v>
       </c>
       <c r="M79">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B80" s="3">
-        <v>44444</v>
+        <v>44423</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
       </c>
       <c r="D80">
-        <v>1518.087986547619</v>
+        <v>6.086184388871223</v>
       </c>
       <c r="E80">
-        <v>277.4665719069499</v>
+        <v>9.842068892481688</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3717,39 +3688,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>5.471246413988633</v>
+        <v>0.6183846562505199</v>
       </c>
       <c r="I80">
-        <v>11.47344227702033</v>
+        <v>28.06548257149982</v>
       </c>
       <c r="J80">
-        <v>6.052737431424254</v>
+        <v>29.19913208193529</v>
       </c>
       <c r="K80">
-        <v>192.4250343571428</v>
+        <v>5.153930617444488</v>
       </c>
       <c r="L80">
-        <v>1878.158003154762</v>
+        <v>161.7075729066356</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B81" s="3">
-        <v>44451</v>
+        <v>44430</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81">
-        <v>1849.207756428571</v>
+        <v>293.5474869022366</v>
       </c>
       <c r="E81">
-        <v>428.9443890753734</v>
+        <v>68.41641545632339</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3758,39 +3729,39 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>4.311066430813322</v>
+        <v>4.290600215523356</v>
       </c>
       <c r="I81">
-        <v>11.59949244100114</v>
+        <v>23.35505915665882</v>
       </c>
       <c r="J81">
-        <v>7.694203877034982</v>
+        <v>18.26590674084233</v>
       </c>
       <c r="K81">
-        <v>296.2065807380953</v>
+        <v>35.82716827205989</v>
       </c>
       <c r="L81">
-        <v>2942.093434047619</v>
+        <v>939.0886756300506</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B82" s="3">
-        <v>44458</v>
+        <v>44437</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
       </c>
       <c r="D82">
-        <v>900.7678113095247</v>
+        <v>766.6021570773812</v>
       </c>
       <c r="E82">
-        <v>333.0388277949625</v>
+        <v>219.942697763955</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3799,39 +3770,39 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2.704693075199293</v>
+        <v>3.485463099575633</v>
       </c>
       <c r="I82">
-        <v>6.368730693536502</v>
+        <v>12.35058533783109</v>
       </c>
       <c r="J82">
-        <v>4.805507460768684</v>
+        <v>8.068926712706528</v>
       </c>
       <c r="K82">
-        <v>229.6231805357143</v>
+        <v>115.1759265732143</v>
       </c>
       <c r="L82">
-        <v>1563.812592857143</v>
+        <v>1464.289976488095</v>
       </c>
       <c r="M82">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B83" s="3">
-        <v>44465</v>
+        <v>44444</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
       <c r="D83">
-        <v>49.75213690476085</v>
+        <v>1518.087986547619</v>
       </c>
       <c r="E83">
-        <v>100.9208674758142</v>
+        <v>367.4594373410875</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3840,39 +3811,39 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.4929816612672695</v>
+        <v>4.131307655431044</v>
       </c>
       <c r="I83">
-        <v>8.26929816312766</v>
+        <v>11.47344227702033</v>
       </c>
       <c r="J83">
-        <v>5.152810983925925</v>
+        <v>6.076787798502005</v>
       </c>
       <c r="K83">
-        <v>67.69950946428574</v>
+        <v>192.4250343571428</v>
       </c>
       <c r="L83">
-        <v>217.8871839285715</v>
+        <v>1878.158003154762</v>
       </c>
       <c r="M83">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B84" s="3">
-        <v>44472</v>
+        <v>44451</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84">
-        <v>50.63327380952459</v>
+        <v>1849.207756428571</v>
       </c>
       <c r="E84">
-        <v>39.49894254902099</v>
+        <v>565.6431547920761</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3881,39 +3852,39 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1.281889350498057</v>
+        <v>3.26921264893291</v>
       </c>
       <c r="I84">
-        <v>8.904645680400906</v>
+        <v>11.59949244100114</v>
       </c>
       <c r="J84">
-        <v>5.505021093825067</v>
+        <v>7.718254244112734</v>
       </c>
       <c r="K84">
-        <v>24.60491059523812</v>
+        <v>296.2065807380953</v>
       </c>
       <c r="L84">
-        <v>170.1808964285713</v>
+        <v>2942.093434047619</v>
       </c>
       <c r="M84">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B85" s="3">
-        <v>44479</v>
+        <v>44458</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
       </c>
       <c r="D85">
-        <v>10.14992857142767</v>
+        <v>900.7678113095247</v>
       </c>
       <c r="E85">
-        <v>45.97453954297303</v>
+        <v>438.4939049225766</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3922,39 +3893,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.2207728162658464</v>
+        <v>2.054231087815395</v>
       </c>
       <c r="I85">
-        <v>5.233280633754554</v>
+        <v>6.368730693536502</v>
       </c>
       <c r="J85">
-        <v>6.920343862436426</v>
+        <v>4.829557827846436</v>
       </c>
       <c r="K85">
-        <v>26.93284970238093</v>
+        <v>229.6231805357143</v>
       </c>
       <c r="L85">
-        <v>135.1576083333331</v>
+        <v>1563.812592857143</v>
       </c>
       <c r="M85">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3">
-        <v>44486</v>
+        <v>44465</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
       </c>
       <c r="D86">
-        <v>7.741273809524413</v>
+        <v>49.75213690476085</v>
       </c>
       <c r="E86">
-        <v>45.49279200394934</v>
+        <v>129.2805987491338</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3963,39 +3934,39 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0.1701648430118858</v>
+        <v>0.3848383855438649</v>
       </c>
       <c r="I86">
-        <v>5.286878536415538</v>
+        <v>8.26929816312766</v>
       </c>
       <c r="J86">
-        <v>6.745722635924748</v>
+        <v>5.176861351003677</v>
       </c>
       <c r="K86">
-        <v>26.74881428571434</v>
+        <v>67.69950946428574</v>
       </c>
       <c r="L86">
-        <v>136.3340023809526</v>
+        <v>217.8871839285715</v>
       </c>
       <c r="M86">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B87" s="3">
-        <v>44493</v>
+        <v>44472</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87">
-        <v>11.41950595238069</v>
+        <v>50.63327380952459</v>
       </c>
       <c r="E87">
-        <v>40.09207643388355</v>
+        <v>46.98612440610614</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4004,39 +3975,39 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.2848319909599286</v>
+        <v>1.077621839415734</v>
       </c>
       <c r="I87">
-        <v>4.977281779546633</v>
+        <v>8.904645680400906</v>
       </c>
       <c r="J87">
-        <v>6.129206675810902</v>
+        <v>5.529071460902819</v>
       </c>
       <c r="K87">
-        <v>23.7445939285714</v>
+        <v>24.60491059523812</v>
       </c>
       <c r="L87">
-        <v>131.7003720238096</v>
+        <v>170.1808964285713</v>
       </c>
       <c r="M87">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" s="3">
-        <v>44500</v>
+        <v>44479</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
       </c>
       <c r="D88">
-        <v>21.31139285714363</v>
+        <v>10.14992857142767</v>
       </c>
       <c r="E88">
-        <v>69.16648686005762</v>
+        <v>51.43161247543571</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4045,39 +4016,39 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.3081173242218055</v>
+        <v>0.1973480527423749</v>
       </c>
       <c r="I88">
-        <v>4.411084482923154</v>
+        <v>5.233280633754554</v>
       </c>
       <c r="J88">
-        <v>5.948356573069543</v>
+        <v>6.944394229514178</v>
       </c>
       <c r="K88">
-        <v>41.10970059523803</v>
+        <v>26.93284970238093</v>
       </c>
       <c r="L88">
-        <v>178.0265255952379</v>
+        <v>135.1576083333331</v>
       </c>
       <c r="M88">
-        <v>11.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B89" s="3">
-        <v>44507</v>
+        <v>44486</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89">
-        <v>10.87939285714293</v>
+        <v>7.741273809524413</v>
       </c>
       <c r="E89">
-        <v>45.09593036102535</v>
+        <v>51.08017405223332</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4086,39 +4057,39 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.24124999240609</v>
+        <v>0.1515514375814064</v>
       </c>
       <c r="I89">
-        <v>4.48291214457495</v>
+        <v>5.286878536415538</v>
       </c>
       <c r="J89">
-        <v>6.231181677141693</v>
+        <v>6.7697730030025</v>
       </c>
       <c r="K89">
-        <v>28.31823142857151</v>
+        <v>26.74881428571434</v>
       </c>
       <c r="L89">
-        <v>141.2748702380951</v>
+        <v>136.3340023809526</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B90" s="3">
-        <v>44514</v>
+        <v>44493</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
       </c>
       <c r="D90">
-        <v>42.11197023809446</v>
+        <v>11.41950595238069</v>
       </c>
       <c r="E90">
-        <v>37.46660339452162</v>
+        <v>45.34324317017627</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4127,39 +4098,39 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1.123986868909822</v>
+        <v>0.2518458132675359</v>
       </c>
       <c r="I90">
-        <v>6.055634518156402</v>
+        <v>4.977281779546633</v>
       </c>
       <c r="J90">
-        <v>4.696795130856231</v>
+        <v>6.153257042888653</v>
       </c>
       <c r="K90">
-        <v>20.31316267857143</v>
+        <v>23.7445939285714</v>
       </c>
       <c r="L90">
-        <v>203.4263196428575</v>
+        <v>131.7003720238096</v>
       </c>
       <c r="M90">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3">
-        <v>44521</v>
+        <v>44500</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <v>42.59187500000034</v>
+        <v>21.31139285714363</v>
       </c>
       <c r="E91">
-        <v>51.58240791973965</v>
+        <v>78.5040652348258</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4168,39 +4139,39 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0.8257054433416863</v>
+        <v>0.2714686531633207</v>
       </c>
       <c r="I91">
-        <v>7.402789257156477</v>
+        <v>4.411084482923154</v>
       </c>
       <c r="J91">
-        <v>5.392405493994002</v>
+        <v>5.972406940147295</v>
       </c>
       <c r="K91">
-        <v>27.88896255952378</v>
+        <v>41.10970059523803</v>
       </c>
       <c r="L91">
-        <v>283.0773071428569</v>
+        <v>178.0265255952379</v>
       </c>
       <c r="M91">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B92" s="3">
-        <v>44528</v>
+        <v>44507</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
       </c>
       <c r="D92">
-        <v>27.2537505952385</v>
+        <v>10.87939285714293</v>
       </c>
       <c r="E92">
-        <v>92.7396139435192</v>
+        <v>54.07717047837089</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4209,39 +4180,39 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.2938738844851859</v>
+        <v>0.2011827312875834</v>
       </c>
       <c r="I92">
-        <v>4.570146703328066</v>
+        <v>4.48291214457495</v>
       </c>
       <c r="J92">
-        <v>6.100616575804102</v>
+        <v>6.255232044219446</v>
       </c>
       <c r="K92">
-        <v>53.31188380952381</v>
+        <v>28.31823142857151</v>
       </c>
       <c r="L92">
-        <v>313.4555434523808</v>
+        <v>141.2748702380951</v>
       </c>
       <c r="M92">
-        <v>18.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B93" s="3">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
       </c>
       <c r="D93">
-        <v>52.38932261904743</v>
+        <v>42.11197023809446</v>
       </c>
       <c r="E93">
-        <v>72.2859657455159</v>
+        <v>38.79050017282099</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4250,39 +4221,39 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.7247509537810566</v>
+        <v>1.085625863303529</v>
       </c>
       <c r="I93">
-        <v>5.310984863027415</v>
+        <v>6.055634518156402</v>
       </c>
       <c r="J93">
-        <v>6.453903270440419</v>
+        <v>4.720845497933982</v>
       </c>
       <c r="K93">
-        <v>44.08049660714288</v>
+        <v>20.31316267857143</v>
       </c>
       <c r="L93">
-        <v>282.5641374999997</v>
+        <v>203.4263196428575</v>
       </c>
       <c r="M93">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B94" s="3">
-        <v>44542</v>
+        <v>44521</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
       </c>
       <c r="D94">
-        <v>101.4261374999991</v>
+        <v>42.59187500000034</v>
       </c>
       <c r="E94">
-        <v>76.54914876499717</v>
+        <v>53.25742840263057</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4291,39 +4262,39 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1.324980605746163</v>
+        <v>0.7997358542737406</v>
       </c>
       <c r="I94">
-        <v>5.155757995731522</v>
+        <v>7.402789257156477</v>
       </c>
       <c r="J94">
-        <v>5.088773082623464</v>
+        <v>5.416455861071755</v>
       </c>
       <c r="K94">
-        <v>44.25863797619048</v>
+        <v>27.88896255952378</v>
       </c>
       <c r="L94">
-        <v>281.5796125000003</v>
+        <v>283.0773071428569</v>
       </c>
       <c r="M94">
-        <v>13.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B95" s="3">
-        <v>44549</v>
+        <v>44528</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95">
-        <v>105.7410738095246</v>
+        <v>27.2537505952385</v>
       </c>
       <c r="E95">
-        <v>96.49745063722335</v>
+        <v>101.8056454748081</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4332,39 +4303,39 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1.095791371805791</v>
+        <v>0.2677037257426207</v>
       </c>
       <c r="I95">
-        <v>4.706533329540142</v>
+        <v>4.570146703328066</v>
       </c>
       <c r="J95">
-        <v>5.352271711685803</v>
+        <v>6.124666942881854</v>
       </c>
       <c r="K95">
-        <v>55.76095142857143</v>
+        <v>53.31188380952381</v>
       </c>
       <c r="L95">
-        <v>289.361885714286</v>
+        <v>313.4555434523808</v>
       </c>
       <c r="M95">
-        <v>14.6</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B96" s="3">
-        <v>44556</v>
+        <v>44535</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
       </c>
       <c r="D96">
-        <v>132.6053535714281</v>
+        <v>52.38932261904743</v>
       </c>
       <c r="E96">
-        <v>114.8113375779512</v>
+        <v>84.17716818962947</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4373,697 +4344,730 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1.154984833108452</v>
+        <v>0.6223697440264062</v>
       </c>
       <c r="I96">
-        <v>4.969791479821648</v>
+        <v>5.310984863027415</v>
       </c>
       <c r="J96">
-        <v>5.365756651218731</v>
+        <v>6.477953637518172</v>
       </c>
       <c r="K96">
-        <v>59.84900488095237</v>
+        <v>44.08049660714288</v>
       </c>
       <c r="L96">
-        <v>318.6594124999999</v>
+        <v>282.5641374999997</v>
       </c>
       <c r="M96">
-        <v>33.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B97" s="3">
-        <v>44563</v>
+        <v>44542</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97">
-        <v>94.02661488095224</v>
+        <v>101.4261374999991</v>
       </c>
       <c r="E97">
-        <v>72.03247761942973</v>
+        <v>84.5173511988522</v>
       </c>
       <c r="F97">
-        <v>21.99413726152251</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>21.99413726152251</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1.305336398085936</v>
+        <v>1.200062899053284</v>
       </c>
       <c r="I97">
-        <v>5.261234011975835</v>
+        <v>5.155757995731522</v>
       </c>
       <c r="J97">
-        <v>5.664462239400327</v>
+        <v>5.112823449701216</v>
       </c>
       <c r="K97">
-        <v>40.93370988095237</v>
+        <v>44.25863797619048</v>
       </c>
       <c r="L97">
-        <v>242.172619047619</v>
+        <v>281.5796125000003</v>
       </c>
       <c r="M97">
-        <v>11.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B98" s="3">
-        <v>44570</v>
+        <v>44549</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
       </c>
       <c r="D98">
-        <v>111.6955732142856</v>
+        <v>105.7410738095246</v>
       </c>
       <c r="E98">
-        <v>80.32923078065581</v>
+        <v>106.4824434408941</v>
       </c>
       <c r="F98">
-        <v>31.36634243362982</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>53.36047969515234</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1.390472336518168</v>
+        <v>0.9930376350559517</v>
       </c>
       <c r="I98">
-        <v>5.829166982169057</v>
+        <v>4.706533329540142</v>
       </c>
       <c r="J98">
-        <v>5.8876213149526</v>
+        <v>5.376322078763556</v>
       </c>
       <c r="K98">
-        <v>36.99913976190471</v>
+        <v>55.76095142857143</v>
       </c>
       <c r="L98">
-        <v>266.170201190476</v>
+        <v>289.361885714286</v>
       </c>
       <c r="M98">
-        <v>28</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B99" s="3">
-        <v>44577</v>
+        <v>44556</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
       </c>
       <c r="D99">
-        <v>149.526848809524</v>
+        <v>132.6053535714281</v>
       </c>
       <c r="E99">
-        <v>193.0214176747724</v>
+        <v>114.2890878645303</v>
       </c>
       <c r="F99">
-        <v>-43.4945688652484</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>9.865910829903939</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.7746645455763168</v>
+        <v>1.160262594173545</v>
       </c>
       <c r="I99">
-        <v>3.486142972763887</v>
+        <v>4.969791479821648</v>
       </c>
       <c r="J99">
-        <v>4.410216108171139</v>
+        <v>5.389807018296482</v>
       </c>
       <c r="K99">
-        <v>113.3062685714286</v>
+        <v>59.84900488095237</v>
       </c>
       <c r="L99">
-        <v>380.7434892857144</v>
+        <v>318.6594124999999</v>
       </c>
       <c r="M99">
-        <v>32</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B100" s="3">
-        <v>44584</v>
+        <v>44563</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
       </c>
       <c r="D100">
-        <v>97.73853988095098</v>
+        <v>94.02661488095224</v>
       </c>
       <c r="E100">
-        <v>109.248259067468</v>
+        <v>78.16798916725635</v>
       </c>
       <c r="F100">
-        <v>-11.50971918651697</v>
+        <v>15.85862571369589</v>
       </c>
       <c r="G100">
-        <v>-1.643808356613036</v>
+        <v>15.85862571369589</v>
       </c>
       <c r="H100">
-        <v>0.8946462004542428</v>
+        <v>1.202878772789756</v>
       </c>
       <c r="I100">
-        <v>4.673176230768131</v>
+        <v>5.261234011975835</v>
       </c>
       <c r="J100">
-        <v>5.242107519578306</v>
+        <v>5.688512606478079</v>
       </c>
       <c r="K100">
-        <v>56.66122589285715</v>
+        <v>40.93370988095237</v>
       </c>
       <c r="L100">
-        <v>296.317150595238</v>
+        <v>242.172619047619</v>
       </c>
       <c r="M100">
-        <v>29.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B101" s="3">
-        <v>44591</v>
+        <v>44570</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
       </c>
       <c r="D101">
-        <v>106.1772714285734</v>
+        <v>111.6955732142856</v>
       </c>
       <c r="E101">
-        <v>112.5625811085328</v>
+        <v>70.65444017944171</v>
       </c>
       <c r="F101">
-        <v>-6.38530967995932</v>
+        <v>41.04113303484392</v>
       </c>
       <c r="G101">
-        <v>-8.029118036572356</v>
+        <v>56.89975874853981</v>
       </c>
       <c r="H101">
-        <v>0.9432732474941863</v>
+        <v>1.580871250704293</v>
       </c>
       <c r="I101">
-        <v>-4.752043024451422</v>
+        <v>5.829166982169057</v>
       </c>
       <c r="J101">
-        <v>-4.832111162289505</v>
+        <v>5.911671682030352</v>
       </c>
       <c r="K101">
-        <v>59.28748142857148</v>
+        <v>36.99913976190471</v>
       </c>
       <c r="L101">
-        <v>-768.7150767857141</v>
+        <v>266.170201190476</v>
       </c>
       <c r="M101">
-        <v>29.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B102" s="3">
-        <v>44598</v>
+        <v>44577</v>
       </c>
       <c r="C102" t="s">
         <v>26</v>
       </c>
       <c r="D102">
-        <v>140.6137428571431</v>
+        <v>149.526848809524</v>
       </c>
       <c r="E102">
-        <v>90.76536582905497</v>
+        <v>216.3723542291252</v>
       </c>
       <c r="F102">
-        <v>49.84837702808817</v>
+        <v>-66.84550541960118</v>
       </c>
       <c r="G102">
-        <v>41.81925899151581</v>
+        <v>-9.945746671061372</v>
       </c>
       <c r="H102">
-        <v>1.549200419926376</v>
+        <v>0.691062632942396</v>
       </c>
       <c r="I102">
-        <v>6.063759956652471</v>
+        <v>3.486142972763887</v>
       </c>
       <c r="J102">
-        <v>5.317039616692692</v>
+        <v>4.43426647524889</v>
       </c>
       <c r="K102">
-        <v>46.73604910714281</v>
+        <v>113.3062685714286</v>
       </c>
       <c r="L102">
-        <v>315.382282738095</v>
+        <v>380.7434892857144</v>
       </c>
       <c r="M102">
-        <v>25.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B103" s="3">
-        <v>44605</v>
+        <v>44584</v>
       </c>
       <c r="C103" t="s">
         <v>26</v>
       </c>
       <c r="D103">
-        <v>148.9973202380962</v>
+        <v>97.73853988095098</v>
       </c>
       <c r="E103">
-        <v>138.0589447052806</v>
+        <v>108.2016290406482</v>
       </c>
       <c r="F103">
-        <v>10.9383755328156</v>
+        <v>-10.46308915969718</v>
       </c>
       <c r="G103">
-        <v>52.75763452433141</v>
+        <v>-20.40883583075855</v>
       </c>
       <c r="H103">
-        <v>1.079229748975455</v>
+        <v>0.9033000773420287</v>
       </c>
       <c r="I103">
-        <v>4.446838456039343</v>
+        <v>4.673176230768131</v>
       </c>
       <c r="J103">
-        <v>4.786370382302681</v>
+        <v>5.266157886656057</v>
       </c>
       <c r="K103">
-        <v>80.28734184523806</v>
+        <v>56.66122589285715</v>
       </c>
       <c r="L103">
-        <v>332.7340488095242</v>
+        <v>296.317150595238</v>
       </c>
       <c r="M103">
-        <v>22.8</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B104" s="3">
-        <v>44612</v>
+        <v>44591</v>
       </c>
       <c r="C104" t="s">
         <v>26</v>
       </c>
       <c r="D104">
-        <v>167.5580291666653</v>
+        <v>106.1772714285734</v>
       </c>
       <c r="E104">
-        <v>175.522471140983</v>
+        <v>113.2167892805387</v>
       </c>
       <c r="F104">
-        <v>-7.964441974317651</v>
+        <v>-7.039517851965229</v>
       </c>
       <c r="G104">
-        <v>44.79319255001376</v>
+        <v>-27.44835368272378</v>
       </c>
       <c r="H104">
-        <v>0.9546243741753131</v>
+        <v>0.9378226683807286</v>
       </c>
       <c r="I104">
-        <v>3.896906041954181</v>
+        <v>-4.752043024451422</v>
       </c>
       <c r="J104">
-        <v>4.383236214946034</v>
+        <v>-4.808060795211754</v>
       </c>
       <c r="K104">
-        <v>102.9196893452382</v>
+        <v>59.28748142857148</v>
       </c>
       <c r="L104">
-        <v>352.5422720238093</v>
+        <v>-768.7150767857141</v>
       </c>
       <c r="M104">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3">
-        <v>44619</v>
+        <v>44598</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
       </c>
       <c r="D105">
-        <v>169.5593047619055</v>
+        <v>140.6137428571431</v>
       </c>
       <c r="E105">
-        <v>170.053119188954</v>
+        <v>89.24827461161706</v>
       </c>
       <c r="F105">
-        <v>-0.4938144270485054</v>
+        <v>51.36546824552607</v>
       </c>
       <c r="G105">
-        <v>44.29937812296525</v>
+        <v>23.9171145628023</v>
       </c>
       <c r="H105">
-        <v>0.9970961166169507</v>
+        <v>1.575534580013495</v>
       </c>
       <c r="I105">
-        <v>4.056309499975893</v>
+        <v>6.063759956652471</v>
       </c>
       <c r="J105">
-        <v>4.550171185575677</v>
+        <v>5.341089983770444</v>
       </c>
       <c r="K105">
-        <v>102.6906622023808</v>
+        <v>46.73604910714281</v>
       </c>
       <c r="L105">
-        <v>367.1677827380953</v>
+        <v>315.382282738095</v>
       </c>
       <c r="M105">
-        <v>23.4</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B106" s="3">
-        <v>44626</v>
+        <v>44605</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
       </c>
       <c r="D106">
-        <v>185.7387297619037</v>
+        <v>148.9973202380962</v>
       </c>
       <c r="E106">
-        <v>123.4743874449043</v>
+        <v>153.3186238403163</v>
       </c>
       <c r="F106">
-        <v>62.26434231699943</v>
+        <v>-4.321303602220155</v>
       </c>
       <c r="G106">
-        <v>106.5637204399647</v>
+        <v>19.59581096058214</v>
       </c>
       <c r="H106">
-        <v>1.504269295077755</v>
+        <v>0.9718148813628743</v>
       </c>
       <c r="I106">
-        <v>4.932537679738197</v>
+        <v>4.446838456039343</v>
       </c>
       <c r="J106">
-        <v>4.90628622591839</v>
+        <v>4.810420749380433</v>
       </c>
       <c r="K106">
-        <v>72.04438720238102</v>
+        <v>80.28734184523806</v>
       </c>
       <c r="L106">
-        <v>350.6261160714286</v>
+        <v>332.7340488095242</v>
       </c>
       <c r="M106">
-        <v>24.2</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B107" s="3">
-        <v>44633</v>
+        <v>44612</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
       </c>
       <c r="D107">
-        <v>171.4113777778111</v>
+        <v>167.5580291666653</v>
       </c>
       <c r="E107">
-        <v>79.12534655533506</v>
+        <v>196.5378946895685</v>
       </c>
       <c r="F107">
-        <v>92.28603122247608</v>
+        <v>-28.97986552290322</v>
       </c>
       <c r="G107">
-        <v>198.8497516624408</v>
+        <v>-9.384054562321083</v>
       </c>
       <c r="H107">
-        <v>2.166327039818237</v>
+        <v>0.8525482041584047</v>
       </c>
       <c r="I107">
-        <v>5.766441925647495</v>
+        <v>3.896906041954181</v>
       </c>
       <c r="J107">
-        <v>5.396671304487156</v>
+        <v>4.407286582023787</v>
       </c>
       <c r="K107">
-        <v>54.99999888888851</v>
+        <v>102.9196893452382</v>
       </c>
       <c r="L107">
-        <v>317.3472222222222</v>
+        <v>352.5422720238093</v>
+      </c>
+      <c r="M107">
+        <v>29.8</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B108" s="3">
-        <v>44269</v>
+        <v>44619</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108">
-        <v>-0.0009869408871169482</v>
+        <v>169.5593047619055</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>196.1005389924194</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>-26.54123423051399</v>
       </c>
       <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>28</v>
-      </c>
-      <c r="J108" t="s">
-        <v>29</v>
+        <v>-35.92528879283508</v>
+      </c>
+      <c r="H108">
+        <v>0.8646549654229151</v>
+      </c>
+      <c r="I108">
+        <v>4.056309499975893</v>
+      </c>
+      <c r="J108">
+        <v>4.574221552653429</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>102.6906622023808</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>367.1677827380953</v>
       </c>
       <c r="M108">
-        <v>10.8</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B109" s="3">
-        <v>44276</v>
+        <v>44626</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>185.7387297619037</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>137.5776809572266</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>48.16104880467708</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>12.235760011842</v>
+      </c>
+      <c r="H109">
+        <v>1.350064403394403</v>
+      </c>
+      <c r="I109">
+        <v>16.61026078594642</v>
+      </c>
+      <c r="J109">
+        <v>16.60805969920436</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>72.04438720238102</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1619.530691666666</v>
       </c>
       <c r="M109">
-        <v>11.3</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3">
-        <v>44283</v>
+        <v>44633</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>164.840673363094</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>200.1116902184906</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>-35.27101685539657</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>-23.03525684355456</v>
+      </c>
+      <c r="H110">
+        <v>0.8237433464437478</v>
+      </c>
+      <c r="I110">
+        <v>4.448585950290379</v>
+      </c>
+      <c r="J110">
+        <v>4.907348419139488</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>104.7911550297619</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>418.9444934523813</v>
       </c>
       <c r="M110">
-        <v>22.6</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B111" s="3">
-        <v>44290</v>
+        <v>44640</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>235.723388392858</v>
       </c>
       <c r="E111">
-        <v>-5.533558123714165E-18</v>
+        <v>253.5958110928454</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>-17.87242269998745</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>-40.90767954354202</v>
       </c>
       <c r="H111">
-        <v>-0</v>
+        <v>0.929523982975239</v>
       </c>
       <c r="I111">
-        <v>-0</v>
+        <v>4.302465834969686</v>
       </c>
       <c r="J111">
-        <v>35.09335814553534</v>
+        <v>4.6396909726353</v>
       </c>
       <c r="K111">
-        <v>-2.64338815386942E-18</v>
+        <v>132.798828125</v>
       </c>
       <c r="L111">
-        <v>1.32169407693471E-18</v>
+        <v>519.6943824404761</v>
       </c>
       <c r="M111">
-        <v>11.7</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B112" s="3">
-        <v>44297</v>
+        <v>44647</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112">
-        <v>-8.458842092382145E-17</v>
+        <v>332.175279017858</v>
       </c>
       <c r="E112">
-        <v>-5.533558123714165E-18</v>
+        <v>184.8569891192579</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>147.3182898986001</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>106.4106103550581</v>
       </c>
       <c r="H112">
-        <v>15.28644301418218</v>
-      </c>
-      <c r="J112" t="s">
-        <v>29</v>
+        <v>1.796931133631955</v>
+      </c>
+      <c r="I112">
+        <v>6.271364367964313</v>
+      </c>
+      <c r="J112">
+        <v>5.364443187679679</v>
       </c>
       <c r="K112">
-        <v>-2.64338815386942E-18</v>
+        <v>96.80282738095238</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>604.1421130952381</v>
       </c>
       <c r="M112">
-        <v>9.5</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B113" s="3">
-        <v>44304</v>
+        <v>44654</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>275.2259830729163</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>110.3682714023768</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>164.8577116705395</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>271.2683220255975</v>
+      </c>
+      <c r="H113">
+        <v>2.493705659931077</v>
+      </c>
+      <c r="I113">
+        <v>7.686446829849205</v>
+      </c>
+      <c r="J113">
+        <v>5.821521400346698</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>57.79581705729166</v>
       </c>
       <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>13.5</v>
+        <v>458.4544270833333</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B114" s="3">
-        <v>44311</v>
+        <v>44269</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>-0.0009869408871169482</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5074,6 +5078,12 @@
       <c r="G114">
         <v>0</v>
       </c>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" t="s">
+        <v>29</v>
+      </c>
       <c r="K114">
         <v>0</v>
       </c>
@@ -5081,15 +5091,15 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>12.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B115" s="3">
-        <v>44318</v>
+        <v>44276</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -5113,15 +5123,15 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>3.5</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B116" s="3">
-        <v>44325</v>
+        <v>44283</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -5145,15 +5155,15 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>8.6</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3">
-        <v>44332</v>
+        <v>44290</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -5162,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>-5.597132579143706E-18</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5170,31 +5180,40 @@
       <c r="G117">
         <v>0</v>
       </c>
+      <c r="H117">
+        <v>-0</v>
+      </c>
+      <c r="I117">
+        <v>-0</v>
+      </c>
+      <c r="J117">
+        <v>35.11740851261309</v>
+      </c>
       <c r="K117">
-        <v>0</v>
+        <v>-2.64338815386942E-18</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1.32169407693471E-18</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B118" s="3">
-        <v>44339</v>
+        <v>44297</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>-8.458842092382145E-17</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>-5.597132579143706E-18</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -5202,22 +5221,28 @@
       <c r="G118">
         <v>0</v>
       </c>
+      <c r="H118">
+        <v>15.1128135215197</v>
+      </c>
+      <c r="J118" t="s">
+        <v>29</v>
+      </c>
       <c r="K118">
-        <v>0</v>
+        <v>-2.64338815386942E-18</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B119" s="3">
-        <v>44346</v>
+        <v>44304</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -5241,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B120" s="3">
-        <v>44353</v>
+        <v>44311</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -5273,15 +5298,15 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B121" s="3">
-        <v>44360</v>
+        <v>44318</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -5305,15 +5330,15 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>10.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B122" s="3">
-        <v>44367</v>
+        <v>44325</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -5337,15 +5362,15 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B123" s="3">
-        <v>44374</v>
+        <v>44332</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -5369,15 +5394,15 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B124" s="3">
-        <v>44381</v>
+        <v>44339</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -5401,15 +5426,15 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B125" s="3">
-        <v>44388</v>
+        <v>44346</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -5433,24 +5458,24 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B126" s="3">
-        <v>44395</v>
+        <v>44353</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126">
-        <v>0.5498138513441242</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>3.452939419847817</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5458,40 +5483,31 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126">
-        <v>0.1592306682775096</v>
-      </c>
-      <c r="I126">
-        <v>1.532846772954966</v>
-      </c>
-      <c r="J126">
-        <v>3.292878102032542</v>
-      </c>
       <c r="K126">
-        <v>1.649473802278967</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>2.528390594897072</v>
+        <v>0</v>
       </c>
       <c r="M126">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B127" s="3">
-        <v>44402</v>
+        <v>44360</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127">
-        <v>2.837242672963812</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>7.819060681007665</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5499,40 +5515,31 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127">
-        <v>0.3628623422574805</v>
-      </c>
-      <c r="I127">
-        <v>6.205581384884301</v>
-      </c>
-      <c r="J127">
-        <v>7.539338690546909</v>
-      </c>
       <c r="K127">
-        <v>3.735175797645506</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>23.17893739913932</v>
+        <v>0</v>
       </c>
       <c r="M127">
-        <v>1.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B128" s="3">
-        <v>44409</v>
+        <v>44367</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128">
-        <v>5.329360942652728</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>25.65632879420178</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5540,40 +5547,31 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>0.2077211040364099</v>
-      </c>
-      <c r="I128">
-        <v>1.643134392622405</v>
-      </c>
-      <c r="J128">
-        <v>3.30165787302353</v>
-      </c>
       <c r="K128">
-        <v>12.25606275205272</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>20.13835822603623</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B129" s="3">
-        <v>44416</v>
+        <v>44374</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129">
-        <v>23.00274023658652</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>81.01077589262654</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5581,40 +5579,31 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129">
-        <v>0.2839466723177032</v>
-      </c>
-      <c r="I129">
-        <v>3.862268659820468</v>
-      </c>
-      <c r="J129">
-        <v>5.361224725961888</v>
-      </c>
       <c r="K129">
-        <v>38.69895653804122</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>149.465767004631</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B130" s="3">
-        <v>44423</v>
+        <v>44381</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130">
-        <v>6.184465285095379</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>13.16003284511491</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5622,40 +5611,31 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130">
-        <v>0.4699429977024026</v>
-      </c>
-      <c r="I130">
-        <v>28.06548257149982</v>
-      </c>
-      <c r="J130">
-        <v>29.17508171485754</v>
-      </c>
       <c r="K130">
-        <v>6.286565379737963</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>176.43549109963</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B131" s="3">
-        <v>44430</v>
+        <v>44388</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131">
-        <v>296.4205764367845</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>86.10409796721747</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5663,40 +5643,31 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>3.442583842520957</v>
-      </c>
-      <c r="I131">
-        <v>23.35505915665882</v>
-      </c>
-      <c r="J131">
-        <v>18.24185637376457</v>
-      </c>
       <c r="K131">
-        <v>41.13204333948217</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>960.6413054278604</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B132" s="3">
-        <v>44437</v>
+        <v>44395</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132">
-        <v>788.7852944679826</v>
+        <v>0.5498138513441242</v>
       </c>
       <c r="E132">
-        <v>258.0391931685239</v>
+        <v>3.492609870277762</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5705,39 +5676,39 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>3.056842973279766</v>
+        <v>0.1574220630889984</v>
       </c>
       <c r="I132">
-        <v>12.35058533783109</v>
+        <v>1.532846772954966</v>
       </c>
       <c r="J132">
-        <v>8.044876345628774</v>
+        <v>3.316928469110294</v>
       </c>
       <c r="K132">
-        <v>123.2656694311309</v>
+        <v>1.649473802278967</v>
       </c>
       <c r="L132">
-        <v>1522.40316953406</v>
+        <v>2.528390594897072</v>
       </c>
       <c r="M132">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B133" s="3">
-        <v>44444</v>
+        <v>44402</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
       </c>
       <c r="D133">
-        <v>1540.62588906415</v>
+        <v>2.837242672963812</v>
       </c>
       <c r="E133">
-        <v>429.2061109817033</v>
+        <v>7.908893030040975</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5746,39 +5717,39 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>3.589477991215799</v>
+        <v>0.3587408076183213</v>
       </c>
       <c r="I133">
-        <v>11.47344227702033</v>
+        <v>6.205581384884301</v>
       </c>
       <c r="J133">
-        <v>6.052737431424254</v>
+        <v>7.563389057624661</v>
       </c>
       <c r="K133">
-        <v>205.0323361518925</v>
+        <v>3.735175797645506</v>
       </c>
       <c r="L133">
-        <v>2352.426673761365</v>
+        <v>23.17893739913932</v>
       </c>
       <c r="M133">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B134" s="3">
-        <v>44451</v>
+        <v>44409</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
       </c>
       <c r="D134">
-        <v>1935.158881875178</v>
+        <v>5.329360942652728</v>
       </c>
       <c r="E134">
-        <v>675.3157511113219</v>
+        <v>25.95109160231661</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5787,39 +5758,39 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>2.865561596468936</v>
+        <v>0.2053617252145565</v>
       </c>
       <c r="I134">
-        <v>11.59949244100114</v>
+        <v>1.643134392622405</v>
       </c>
       <c r="J134">
-        <v>7.694203877034982</v>
+        <v>3.325708240101282</v>
       </c>
       <c r="K134">
-        <v>322.5992420607143</v>
+        <v>12.25606275205272</v>
       </c>
       <c r="L134">
-        <v>3741.987469755952</v>
+        <v>20.13835822603623</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B135" s="3">
-        <v>44458</v>
+        <v>44416</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135">
-        <v>1127.366816994763</v>
+        <v>23.00274023658652</v>
       </c>
       <c r="E135">
-        <v>645.4068063042502</v>
+        <v>81.94150000289241</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5828,39 +5799,39 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1.746753839567215</v>
+        <v>0.2807214932088692</v>
       </c>
       <c r="I135">
-        <v>6.368730693536502</v>
+        <v>3.862268659820468</v>
       </c>
       <c r="J135">
-        <v>4.805507460768684</v>
+        <v>5.38527509303964</v>
       </c>
       <c r="K135">
-        <v>308.3116989229761</v>
+        <v>38.69895653804122</v>
       </c>
       <c r="L135">
-        <v>1963.554180107143</v>
+        <v>149.465767004631</v>
       </c>
       <c r="M135">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B136" s="3">
-        <v>44465</v>
+        <v>44423</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136">
-        <v>1031.575676029642</v>
+        <v>6.184465285095379</v>
       </c>
       <c r="E136">
-        <v>414.4954810653142</v>
+        <v>13.31122705015589</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -5869,39 +5840,39 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>2.488750114665523</v>
+        <v>0.4646051984383325</v>
       </c>
       <c r="I136">
-        <v>8.26929816312766</v>
+        <v>28.06548257149982</v>
       </c>
       <c r="J136">
-        <v>5.152810983925925</v>
+        <v>29.19913208193529</v>
       </c>
       <c r="K136">
-        <v>198.0050484669048</v>
+        <v>6.286565379737963</v>
       </c>
       <c r="L136">
-        <v>1637.362783577381</v>
+        <v>176.43549109963</v>
       </c>
       <c r="M136">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B137" s="3">
-        <v>44472</v>
+        <v>44430</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
       </c>
       <c r="D137">
-        <v>925.1598435714295</v>
+        <v>296.4205764367845</v>
       </c>
       <c r="E137">
-        <v>352.5754565258029</v>
+        <v>87.09333870819003</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5910,39 +5881,39 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>2.624005234759506</v>
+        <v>3.403481607588318</v>
       </c>
       <c r="I137">
-        <v>8.904645680400906</v>
+        <v>23.35505915665882</v>
       </c>
       <c r="J137">
-        <v>5.505021093825067</v>
+        <v>18.26590674084233</v>
       </c>
       <c r="K137">
-        <v>168.4257695119048</v>
+        <v>41.13204333948217</v>
       </c>
       <c r="L137">
-        <v>1499.771800952381</v>
+        <v>960.6413054278604</v>
       </c>
       <c r="M137">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B138" s="3">
-        <v>44479</v>
+        <v>44437</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138">
-        <v>19.64495863095155</v>
+        <v>788.7852944679826</v>
       </c>
       <c r="E138">
-        <v>101.2169546380005</v>
+        <v>261.0037777664274</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -5951,39 +5922,39 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.1940876279197609</v>
+        <v>3.022122136384813</v>
       </c>
       <c r="I138">
-        <v>5.233280633754554</v>
+        <v>12.35058533783109</v>
       </c>
       <c r="J138">
-        <v>6.920343862436426</v>
+        <v>8.068926712706528</v>
       </c>
       <c r="K138">
-        <v>48.35147528571427</v>
+        <v>123.2656694311309</v>
       </c>
       <c r="L138">
-        <v>253.0368392261904</v>
+        <v>1522.40316953406</v>
       </c>
       <c r="M138">
-        <v>7.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B139" s="3">
-        <v>44486</v>
+        <v>44444</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
       </c>
       <c r="D139">
-        <v>33.98829059523823</v>
+        <v>1540.62588906415</v>
       </c>
       <c r="E139">
-        <v>112.1325294782102</v>
+        <v>434.1372139289654</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -5992,39 +5963,39 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.3031082126961462</v>
+        <v>3.548707274185047</v>
       </c>
       <c r="I139">
-        <v>5.286878536415538</v>
+        <v>11.47344227702033</v>
       </c>
       <c r="J139">
-        <v>6.745722635924748</v>
+        <v>6.076787798502005</v>
       </c>
       <c r="K139">
-        <v>53.56586005952387</v>
+        <v>205.0323361518925</v>
       </c>
       <c r="L139">
-        <v>283.1961958333335</v>
+        <v>2352.426673761365</v>
       </c>
       <c r="M139">
-        <v>7.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B140" s="3">
-        <v>44493</v>
+        <v>44451</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140">
-        <v>55.06100113095246</v>
+        <v>1935.158881875178</v>
       </c>
       <c r="E140">
-        <v>122.4328918784794</v>
+        <v>683.0743813018867</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6033,39 +6004,39 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0.4497239286449525</v>
+        <v>2.833013409442931</v>
       </c>
       <c r="I140">
-        <v>4.977281779546633</v>
+        <v>11.59949244100114</v>
       </c>
       <c r="J140">
-        <v>6.129206675810902</v>
+        <v>7.718254244112734</v>
       </c>
       <c r="K140">
-        <v>58.48635702380949</v>
+        <v>322.5992420607143</v>
       </c>
       <c r="L140">
-        <v>291.1030791666667</v>
+        <v>3741.987469755952</v>
       </c>
       <c r="M140">
-        <v>5.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B141" s="3">
-        <v>44500</v>
+        <v>44458</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141">
-        <v>43.06266386904809</v>
+        <v>1127.366816994763</v>
       </c>
       <c r="E141">
-        <v>162.1072445624819</v>
+        <v>652.8218158377131</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6074,39 +6045,39 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.2656430561463909</v>
+        <v>1.726913515517408</v>
       </c>
       <c r="I141">
-        <v>4.411084482923154</v>
+        <v>6.368730693536502</v>
       </c>
       <c r="J141">
-        <v>5.948356573069543</v>
+        <v>4.829557827846436</v>
       </c>
       <c r="K141">
-        <v>77.43884863095229</v>
+        <v>308.3116989229761</v>
       </c>
       <c r="L141">
-        <v>341.5893035714286</v>
+        <v>1963.554180107143</v>
       </c>
       <c r="M141">
-        <v>11.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B142" s="3">
-        <v>44507</v>
+        <v>44465</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142">
-        <v>22.37182285714308</v>
+        <v>1031.575676029642</v>
       </c>
       <c r="E142">
-        <v>135.7107590586792</v>
+        <v>419.2575751641913</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6115,39 +6086,39 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.16484929428086</v>
+        <v>2.460481902147271</v>
       </c>
       <c r="I142">
-        <v>4.48291214457495</v>
+        <v>8.26929816312766</v>
       </c>
       <c r="J142">
-        <v>6.231181677141693</v>
+        <v>5.176861351003677</v>
       </c>
       <c r="K142">
-        <v>64.8292120238096</v>
+        <v>198.0050484669048</v>
       </c>
       <c r="L142">
-        <v>290.6236619047616</v>
+        <v>1637.362783577381</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B143" s="3">
-        <v>44514</v>
+        <v>44472</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
       </c>
       <c r="D143">
-        <v>595.8290624404752</v>
+        <v>925.1598435714295</v>
       </c>
       <c r="E143">
-        <v>361.3013477192245</v>
+        <v>356.6261581079171</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6156,39 +6127,39 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1.649119401855948</v>
+        <v>2.594200740853875</v>
       </c>
       <c r="I143">
-        <v>6.055634518156402</v>
+        <v>8.904645680400906</v>
       </c>
       <c r="J143">
-        <v>4.696795130856231</v>
+        <v>5.529071460902819</v>
       </c>
       <c r="K143">
-        <v>172.5941394642858</v>
+        <v>168.4257695119048</v>
       </c>
       <c r="L143">
-        <v>1045.167028571429</v>
+        <v>1499.771800952381</v>
       </c>
       <c r="M143">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B144" s="3">
-        <v>44521</v>
+        <v>44479</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
       </c>
       <c r="D144">
-        <v>726.6215690476199</v>
+        <v>19.64495863095155</v>
       </c>
       <c r="E144">
-        <v>370.6566382899474</v>
+        <v>102.3798253673727</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6197,39 +6168,39 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1.960363026006883</v>
+        <v>0.1918831035358668</v>
       </c>
       <c r="I144">
-        <v>7.402789257156477</v>
+        <v>5.233280633754554</v>
       </c>
       <c r="J144">
-        <v>5.392405493994002</v>
+        <v>6.944394229514178</v>
       </c>
       <c r="K144">
-        <v>177.063174345238</v>
+        <v>48.35147528571427</v>
       </c>
       <c r="L144">
-        <v>1310.761364880952</v>
+        <v>253.0368392261904</v>
       </c>
       <c r="M144">
-        <v>11.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B145" s="3">
-        <v>44528</v>
+        <v>44486</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145">
-        <v>57.77655220238098</v>
+        <v>33.98829059523823</v>
       </c>
       <c r="E145">
-        <v>214.8686017501371</v>
+        <v>113.4208080754773</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -6238,39 +6209,39 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.2688924846710141</v>
+        <v>0.2996653891993108</v>
       </c>
       <c r="I145">
-        <v>4.570146703328066</v>
+        <v>5.286878536415538</v>
       </c>
       <c r="J145">
-        <v>6.100616575804102</v>
+        <v>6.7697730030025</v>
       </c>
       <c r="K145">
-        <v>102.6430198809524</v>
+        <v>53.56586005952387</v>
       </c>
       <c r="L145">
-        <v>469.0936589285709</v>
+        <v>283.1961958333335</v>
       </c>
       <c r="M145">
-        <v>18.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B146" s="3">
-        <v>44535</v>
+        <v>44493</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146">
-        <v>72.70067188472811</v>
+        <v>55.06100113095246</v>
       </c>
       <c r="E146">
-        <v>160.1243483110755</v>
+        <v>123.8395102339425</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -6279,39 +6250,39 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0.4540263404756636</v>
+        <v>0.4446157855997487</v>
       </c>
       <c r="I146">
-        <v>5.310984863027415</v>
+        <v>4.977281779546633</v>
       </c>
       <c r="J146">
-        <v>6.453903270440419</v>
+        <v>6.153257042888653</v>
       </c>
       <c r="K146">
-        <v>76.4916164262598</v>
+        <v>58.48635702380949</v>
       </c>
       <c r="L146">
-        <v>406.2458169883648</v>
+        <v>291.1030791666667</v>
       </c>
       <c r="M146">
-        <v>8.699999999999999</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B147" s="3">
-        <v>44542</v>
+        <v>44500</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147">
-        <v>233.5070526390801</v>
+        <v>43.06266386904809</v>
       </c>
       <c r="E147">
-        <v>226.26679069616</v>
+        <v>163.9696772981348</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -6320,39 +6291,39 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1.031998783032383</v>
+        <v>0.2626257767815827</v>
       </c>
       <c r="I147">
-        <v>5.155757995731522</v>
+        <v>4.411084482923154</v>
       </c>
       <c r="J147">
-        <v>5.088773082623464</v>
+        <v>5.972406940147295</v>
       </c>
       <c r="K147">
-        <v>108.0879500618355</v>
+        <v>77.43884863095229</v>
       </c>
       <c r="L147">
-        <v>557.2753127735401</v>
+        <v>341.5893035714286</v>
       </c>
       <c r="M147">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B148" s="3">
-        <v>44549</v>
+        <v>44507</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148">
-        <v>129.7861904761916</v>
+        <v>22.37182285714308</v>
       </c>
       <c r="E148">
-        <v>187.6797940193651</v>
+        <v>137.2699254052132</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -6361,39 +6332,39 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0.6915299068518802</v>
+        <v>0.1629768705060682</v>
       </c>
       <c r="I148">
-        <v>4.706533329540142</v>
+        <v>4.48291214457495</v>
       </c>
       <c r="J148">
-        <v>5.352271711685803</v>
+        <v>6.255232044219446</v>
       </c>
       <c r="K148">
-        <v>89.65488988095233</v>
+        <v>64.8292120238096</v>
       </c>
       <c r="L148">
-        <v>421.9637273809525</v>
+        <v>290.6236619047616</v>
       </c>
       <c r="M148">
-        <v>14.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B149" s="3">
-        <v>44556</v>
+        <v>44514</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149">
-        <v>158.1810963690465</v>
+        <v>595.8290624404752</v>
       </c>
       <c r="E149">
-        <v>195.0813344929533</v>
+        <v>365.4523001288092</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -6402,470 +6373,839 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0.8108469053699258</v>
+        <v>1.630388048537295</v>
       </c>
       <c r="I149">
-        <v>4.969791479821648</v>
+        <v>6.055634518156402</v>
       </c>
       <c r="J149">
-        <v>5.365756651218731</v>
+        <v>4.720845497933982</v>
       </c>
       <c r="K149">
-        <v>93.1906157142857</v>
+        <v>172.5941394642858</v>
       </c>
       <c r="L149">
-        <v>463.1379279761902</v>
+        <v>1045.167028571429</v>
       </c>
       <c r="M149">
-        <v>33.2</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B150" s="3">
-        <v>44563</v>
+        <v>44521</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
       </c>
       <c r="D150">
-        <v>116.5463807142854</v>
+        <v>726.6215690476199</v>
       </c>
       <c r="E150">
-        <v>144.3518115303316</v>
+        <v>374.9150726289024</v>
       </c>
       <c r="F150">
-        <v>-27.80543081604627</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>-27.80543081604627</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.8073773337426825</v>
+        <v>1.938096443956103</v>
       </c>
       <c r="I150">
-        <v>5.261234011975835</v>
+        <v>7.402789257156477</v>
       </c>
       <c r="J150">
-        <v>5.664462239400327</v>
+        <v>5.416455861071755</v>
       </c>
       <c r="K150">
-        <v>68.95705440476191</v>
+        <v>177.063174345238</v>
       </c>
       <c r="L150">
-        <v>362.7992000000001</v>
+        <v>1310.761364880952</v>
       </c>
       <c r="M150">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B151" s="3">
-        <v>44570</v>
+        <v>44528</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151">
-        <v>140.4094987500014</v>
+        <v>57.77655220238098</v>
       </c>
       <c r="E151">
-        <v>144.4428803351507</v>
+        <v>217.337204056243</v>
       </c>
       <c r="F151">
-        <v>-4.0333815851493</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>-31.83881240119557</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>0.9720762866553848</v>
+        <v>0.2658382970061096</v>
       </c>
       <c r="I151">
-        <v>5.829166982169057</v>
+        <v>4.570146703328066</v>
       </c>
       <c r="J151">
-        <v>5.8876213149526</v>
+        <v>6.124666942881854</v>
       </c>
       <c r="K151">
-        <v>69.00055809523803</v>
+        <v>102.6430198809524</v>
       </c>
       <c r="L151">
-        <v>402.2157749999999</v>
+        <v>469.0936589285709</v>
       </c>
       <c r="M151">
-        <v>28</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B152" s="3">
-        <v>44577</v>
+        <v>44535</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152">
-        <v>172.9344743452377</v>
+        <v>72.70067188472811</v>
       </c>
       <c r="E152">
-        <v>309.6026951331737</v>
+        <v>161.9639997644976</v>
       </c>
       <c r="F152">
-        <v>-136.668220787936</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>-168.5070331891316</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0.558569021083137</v>
+        <v>0.44886932892765</v>
       </c>
       <c r="I152">
-        <v>3.486142972763887</v>
+        <v>5.310984863027415</v>
       </c>
       <c r="J152">
-        <v>4.410216108171139</v>
+        <v>6.477953637518172</v>
       </c>
       <c r="K152">
-        <v>147.8976236309524</v>
+        <v>76.4916164262598</v>
       </c>
       <c r="L152">
-        <v>515.5922613095236</v>
+        <v>406.2458169883648</v>
       </c>
       <c r="M152">
-        <v>32</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B153" s="3">
-        <v>44584</v>
+        <v>44542</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
       </c>
       <c r="D153">
-        <v>166.6910861904741</v>
+        <v>233.5070526390801</v>
       </c>
       <c r="E153">
-        <v>228.90186008306</v>
+        <v>228.8663455718289</v>
       </c>
       <c r="F153">
-        <v>-62.21077389258588</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>-230.7178070817174</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>0.7282207585818137</v>
+        <v>1.020276930868347</v>
       </c>
       <c r="I153">
-        <v>4.673176230768131</v>
+        <v>5.155757995731522</v>
       </c>
       <c r="J153">
-        <v>5.242107519578306</v>
+        <v>5.112823449701216</v>
       </c>
       <c r="K153">
-        <v>109.34672625</v>
+        <v>108.0879500618355</v>
       </c>
       <c r="L153">
-        <v>510.9965220238097</v>
+        <v>557.2753127735401</v>
       </c>
       <c r="M153">
-        <v>29.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B154" s="3">
-        <v>44591</v>
+        <v>44549</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
       </c>
       <c r="D154">
-        <v>231.6922044642872</v>
+        <v>129.7861904761916</v>
       </c>
       <c r="E154">
-        <v>223.1567581484994</v>
+        <v>189.8360270313175</v>
       </c>
       <c r="F154">
-        <v>8.53544631578788</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>-222.1823607659296</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>1.038248657072299</v>
+        <v>0.6836752354429575</v>
       </c>
       <c r="I154">
-        <v>-4.752043024451422</v>
+        <v>4.706533329540142</v>
       </c>
       <c r="J154">
-        <v>-4.832111162289505</v>
+        <v>5.376322078763556</v>
       </c>
       <c r="K154">
-        <v>106.6022833333334</v>
+        <v>89.65488988095233</v>
       </c>
       <c r="L154">
-        <v>-506.578636904762</v>
+        <v>421.9637273809525</v>
       </c>
       <c r="M154">
-        <v>29.3</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B155" s="3">
-        <v>44598</v>
+        <v>44556</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
       </c>
       <c r="D155">
-        <v>296.824785833335</v>
+        <v>158.1810963690465</v>
       </c>
       <c r="E155">
-        <v>218.7828915272639</v>
+        <v>197.3226030090836</v>
       </c>
       <c r="F155">
-        <v>78.0418943060711</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>-144.1404664598585</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>1.356709310135184</v>
+        <v>0.8016369840902858</v>
       </c>
       <c r="I155">
-        <v>6.063759956652471</v>
+        <v>4.969791479821648</v>
       </c>
       <c r="J155">
-        <v>5.317039616692692</v>
+        <v>5.389807018296482</v>
       </c>
       <c r="K155">
-        <v>104.5128813690475</v>
+        <v>93.1906157142857</v>
       </c>
       <c r="L155">
-        <v>633.7410249999999</v>
+        <v>463.1379279761902</v>
       </c>
       <c r="M155">
-        <v>25.1</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B156" s="3">
-        <v>44605</v>
+        <v>44563</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156">
-        <v>214.4858346428574</v>
+        <v>116.5463807142854</v>
       </c>
       <c r="E156">
-        <v>256.0092123824821</v>
+        <v>146.0102540013667</v>
       </c>
       <c r="F156">
-        <v>-41.52337773962475</v>
+        <v>-29.46387328708134</v>
       </c>
       <c r="G156">
-        <v>-185.6638441994832</v>
+        <v>-29.46387328708134</v>
       </c>
       <c r="H156">
-        <v>0.8378051424274994</v>
+        <v>0.7982068212359554</v>
       </c>
       <c r="I156">
-        <v>4.446838456039343</v>
+        <v>5.261234011975835</v>
       </c>
       <c r="J156">
-        <v>4.786370382302681</v>
+        <v>5.688512606478079</v>
       </c>
       <c r="K156">
-        <v>122.2959448809524</v>
+        <v>68.95705440476191</v>
       </c>
       <c r="L156">
-        <v>543.8303107142857</v>
+        <v>362.7992000000001</v>
       </c>
       <c r="M156">
-        <v>22.8</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B157" s="3">
-        <v>44612</v>
+        <v>44570</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157">
-        <v>230.5803776785705</v>
+        <v>140.4094987500014</v>
       </c>
       <c r="E157">
-        <v>300.3602426721229</v>
+        <v>146.1023690859109</v>
       </c>
       <c r="F157">
-        <v>-69.77986499355242</v>
+        <v>-5.692870335909532</v>
       </c>
       <c r="G157">
-        <v>-255.4437091930356</v>
+        <v>-35.15674362299087</v>
       </c>
       <c r="H157">
-        <v>0.7676794226400828</v>
+        <v>0.9610350580108525</v>
       </c>
       <c r="I157">
-        <v>3.896906041954181</v>
+        <v>5.829166982169057</v>
       </c>
       <c r="J157">
-        <v>4.383236214946034</v>
+        <v>5.911671682030352</v>
       </c>
       <c r="K157">
-        <v>143.4824916666668</v>
+        <v>69.00055809523803</v>
       </c>
       <c r="L157">
-        <v>559.1377886904762</v>
+        <v>402.2157749999999</v>
       </c>
       <c r="M157">
-        <v>29.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B158" s="3">
-        <v>44619</v>
+        <v>44577</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158">
-        <v>227.9362786309537</v>
+        <v>172.9344743452377</v>
       </c>
       <c r="E158">
-        <v>298.3140491316524</v>
+        <v>313.1596872714253</v>
       </c>
       <c r="F158">
-        <v>-70.37777050069866</v>
+        <v>-140.2252129261876</v>
       </c>
       <c r="G158">
-        <v>-325.8214796937343</v>
+        <v>-175.3819565491784</v>
       </c>
       <c r="H158">
-        <v>0.764081608943468</v>
+        <v>0.5522245722366877</v>
       </c>
       <c r="I158">
-        <v>4.056309499975893</v>
+        <v>3.486142972763887</v>
       </c>
       <c r="J158">
-        <v>4.550171185575677</v>
+        <v>4.43426647524889</v>
       </c>
       <c r="K158">
-        <v>142.5050222619046</v>
+        <v>147.8976236309524</v>
       </c>
       <c r="L158">
-        <v>578.0444755952379</v>
+        <v>515.5922613095236</v>
       </c>
       <c r="M158">
-        <v>23.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B159" s="3">
-        <v>44626</v>
+        <v>44584</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159">
-        <v>230.3173567857129</v>
+        <v>166.6910861904741</v>
       </c>
       <c r="E159">
-        <v>227.464866658569</v>
+        <v>231.531688988123</v>
       </c>
       <c r="F159">
-        <v>2.852490127143852</v>
+        <v>-64.84060279764884</v>
       </c>
       <c r="G159">
-        <v>-322.9689895665905</v>
+        <v>-240.2225593468273</v>
       </c>
       <c r="H159">
-        <v>1.012540354776747</v>
+        <v>0.7199493379026185</v>
       </c>
       <c r="I159">
-        <v>4.932537679738197</v>
+        <v>4.673176230768131</v>
       </c>
       <c r="J159">
-        <v>4.90628622591839</v>
+        <v>5.266157886656057</v>
       </c>
       <c r="K159">
-        <v>108.6602725595239</v>
+        <v>109.34672625</v>
       </c>
       <c r="L159">
-        <v>535.9708886904764</v>
+        <v>510.9965220238097</v>
       </c>
       <c r="M159">
-        <v>24.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B160" s="3">
-        <v>44633</v>
+        <v>44591</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160">
-        <v>214.2269900000214</v>
+        <v>231.6922044642872</v>
       </c>
       <c r="E160">
-        <v>182.066735841695</v>
+        <v>225.7205821939926</v>
       </c>
       <c r="F160">
-        <v>32.16025415832647</v>
+        <v>5.971622270294688</v>
       </c>
       <c r="G160">
-        <v>-290.8087354082641</v>
+        <v>-234.2509370765326</v>
       </c>
       <c r="H160">
-        <v>1.176639922771447</v>
+        <v>1.026455816356004</v>
       </c>
       <c r="I160">
-        <v>5.766441925647495</v>
+        <v>-4.752043024451422</v>
       </c>
       <c r="J160">
-        <v>5.396671304487156</v>
+        <v>-4.808060795211754</v>
       </c>
       <c r="K160">
-        <v>86.97352444444469</v>
+        <v>106.6022833333334</v>
       </c>
       <c r="L160">
-        <v>501.5277777777778</v>
+        <v>-506.578636904762</v>
+      </c>
+      <c r="M160">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="1">
+        <v>47</v>
+      </c>
+      <c r="B161" s="3">
+        <v>44598</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161">
+        <v>296.824785833335</v>
+      </c>
+      <c r="E161">
+        <v>221.296464688543</v>
+      </c>
+      <c r="F161">
+        <v>75.52832114479196</v>
+      </c>
+      <c r="G161">
+        <v>-158.7226159317406</v>
+      </c>
+      <c r="H161">
+        <v>1.341299266805242</v>
+      </c>
+      <c r="I161">
+        <v>6.063759956652471</v>
+      </c>
+      <c r="J161">
+        <v>5.341089983770444</v>
+      </c>
+      <c r="K161">
+        <v>104.5128813690475</v>
+      </c>
+      <c r="L161">
+        <v>633.7410249999999</v>
+      </c>
+      <c r="M161">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="1">
+        <v>48</v>
+      </c>
+      <c r="B162" s="3">
+        <v>44605</v>
+      </c>
+      <c r="C162" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162">
+        <v>214.4858346428574</v>
+      </c>
+      <c r="E162">
+        <v>258.9504747489896</v>
+      </c>
+      <c r="F162">
+        <v>-44.46464010613218</v>
+      </c>
+      <c r="G162">
+        <v>-203.1872560378728</v>
+      </c>
+      <c r="H162">
+        <v>0.828289018781551</v>
+      </c>
+      <c r="I162">
+        <v>4.446838456039343</v>
+      </c>
+      <c r="J162">
+        <v>4.810420749380433</v>
+      </c>
+      <c r="K162">
+        <v>122.2959448809524</v>
+      </c>
+      <c r="L162">
+        <v>543.8303107142857</v>
+      </c>
+      <c r="M162">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="1">
+        <v>49</v>
+      </c>
+      <c r="B163" s="3">
+        <v>44612</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163">
+        <v>230.5803776785705</v>
+      </c>
+      <c r="E163">
+        <v>303.8110492659367</v>
+      </c>
+      <c r="F163">
+        <v>-73.23067158736623</v>
+      </c>
+      <c r="G163">
+        <v>-276.417927625239</v>
+      </c>
+      <c r="H163">
+        <v>0.75895981477861</v>
+      </c>
+      <c r="I163">
+        <v>3.896906041954181</v>
+      </c>
+      <c r="J163">
+        <v>4.407286582023787</v>
+      </c>
+      <c r="K163">
+        <v>143.4824916666668</v>
+      </c>
+      <c r="L163">
+        <v>559.1377886904762</v>
+      </c>
+      <c r="M163">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="1">
+        <v>50</v>
+      </c>
+      <c r="B164" s="3">
+        <v>44619</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164">
+        <v>227.9362786309537</v>
+      </c>
+      <c r="E164">
+        <v>301.7413472274744</v>
+      </c>
+      <c r="F164">
+        <v>-73.8050685965207</v>
+      </c>
+      <c r="G164">
+        <v>-350.2229962217597</v>
+      </c>
+      <c r="H164">
+        <v>0.7554028664792793</v>
+      </c>
+      <c r="I164">
+        <v>4.056309499975893</v>
+      </c>
+      <c r="J164">
+        <v>4.574221552653429</v>
+      </c>
+      <c r="K164">
+        <v>142.5050222619046</v>
+      </c>
+      <c r="L164">
+        <v>578.0444755952379</v>
+      </c>
+      <c r="M164">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="1">
+        <v>51</v>
+      </c>
+      <c r="B165" s="3">
+        <v>44626</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165">
+        <v>230.3173567857129</v>
+      </c>
+      <c r="E165">
+        <v>230.0781861003942</v>
+      </c>
+      <c r="F165">
+        <v>0.2391706853187259</v>
+      </c>
+      <c r="G165">
+        <v>-349.983825536441</v>
+      </c>
+      <c r="H165">
+        <v>1.001039519171167</v>
+      </c>
+      <c r="I165">
+        <v>16.61026078594642</v>
+      </c>
+      <c r="J165">
+        <v>16.60805969920436</v>
+      </c>
+      <c r="K165">
+        <v>108.6602725595239</v>
+      </c>
+      <c r="L165">
+        <v>1804.875464285715</v>
+      </c>
+      <c r="M165">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="1">
+        <v>52</v>
+      </c>
+      <c r="B166" s="3">
+        <v>44633</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166">
+        <v>241.6789361755939</v>
+      </c>
+      <c r="E166">
+        <v>308.5245575458629</v>
+      </c>
+      <c r="F166">
+        <v>-66.84562137026899</v>
+      </c>
+      <c r="G166">
+        <v>-416.82944690671</v>
+      </c>
+      <c r="H166">
+        <v>0.7833377611753573</v>
+      </c>
+      <c r="I166">
+        <v>4.448585950290379</v>
+      </c>
+      <c r="J166">
+        <v>4.907348419139488</v>
+      </c>
+      <c r="K166">
+        <v>145.70856578125</v>
+      </c>
+      <c r="L166">
+        <v>648.1970785714291</v>
+      </c>
+      <c r="M166">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="1">
+        <v>53</v>
+      </c>
+      <c r="B167" s="3">
+        <v>44640</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167">
+        <v>301.4979873511911</v>
+      </c>
+      <c r="E167">
+        <v>358.6115980731263</v>
+      </c>
+      <c r="F167">
+        <v>-57.11361072193523</v>
+      </c>
+      <c r="G167">
+        <v>-473.9430576286452</v>
+      </c>
+      <c r="H167">
+        <v>0.8407368556153365</v>
+      </c>
+      <c r="I167">
+        <v>4.302465834969686</v>
+      </c>
+      <c r="J167">
+        <v>4.6396909726353</v>
+      </c>
+      <c r="K167">
+        <v>169.3634440104167</v>
+      </c>
+      <c r="L167">
+        <v>728.680431547619</v>
+      </c>
+      <c r="M167">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="1">
+        <v>54</v>
+      </c>
+      <c r="B168" s="3">
+        <v>44647</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168">
+        <v>382.8127161458341</v>
+      </c>
+      <c r="E168">
+        <v>268.0167131934247</v>
+      </c>
+      <c r="F168">
+        <v>114.7960029524094</v>
+      </c>
+      <c r="G168">
+        <v>-359.1470546762359</v>
+      </c>
+      <c r="H168">
+        <v>1.428316583636194</v>
+      </c>
+      <c r="I168">
+        <v>6.271364367964313</v>
+      </c>
+      <c r="J168">
+        <v>5.364443187679679</v>
+      </c>
+      <c r="K168">
+        <v>126.5777064732143</v>
+      </c>
+      <c r="L168">
+        <v>793.8149181547619</v>
+      </c>
+      <c r="M168">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="1">
+        <v>55</v>
+      </c>
+      <c r="B169" s="3">
+        <v>44654</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169">
+        <v>343.9846269531251</v>
+      </c>
+      <c r="E169">
+        <v>182.8967605191967</v>
+      </c>
+      <c r="F169">
+        <v>161.0878664339284</v>
+      </c>
+      <c r="G169">
+        <v>-198.0591882423075</v>
+      </c>
+      <c r="H169">
+        <v>1.880758445237857</v>
+      </c>
+      <c r="I169">
+        <v>7.686446829849205</v>
+      </c>
+      <c r="J169">
+        <v>5.821521400346698</v>
+      </c>
+      <c r="K169">
+        <v>86.37764485677083</v>
+      </c>
+      <c r="L169">
+        <v>663.9371744791666</v>
       </c>
     </row>
   </sheetData>
